--- a/news_data/2017_04.xlsx
+++ b/news_data/2017_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,27 +22,129 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 관광개발사업 투자?고용 실적 체계적 관리한다</t>
+  </si>
+  <si>
+    <t>제주도-베트남 여행사 인센티브 관광 협약</t>
+  </si>
+  <si>
+    <t>제주도, 여의도서 '관광보은' 길거리공연…700명 어깨 들썩</t>
+  </si>
+  <si>
+    <t>관광지로 유명한 제주도 서귀포 중문에서는 제주흑돼지 맛집도 빠지면 아쉬운...</t>
+  </si>
+  <si>
+    <t>봄 여행 주간 제주도 여행, 볼거리 풍부한 서귀포 관광 후 맛집 즐겨볼까</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰리는 성산일출봉, 섭지코지에는 돔베고기 등 향토음식 눈길 ...</t>
+  </si>
+  <si>
+    <t>제주도에 들어선 빙그레 옐로우 카페…새로운 관광명소 부상 기대</t>
+  </si>
+  <si>
+    <t>제주도 관광시장다변화…유관기관 합동 현지마케팅 추진</t>
+  </si>
+  <si>
+    <t>제주도, 개발가이드라인 저촉 상가관광지 매입 120억</t>
+  </si>
+  <si>
+    <t>중국인이 떠난 제주도에 내국인 관광객들이 채운다</t>
+  </si>
+  <si>
+    <t>제주도 상가관광지 매입절차 돌입</t>
+  </si>
+  <si>
+    <t>'배틀트립'김숙, 제주도서 나홀로 웨딩 촬영…관광객 들러리로 즉석 섭외</t>
+  </si>
+  <si>
+    <t>중국인 관광 의존도 낮추기…정부 밀고 제주도 당긴다</t>
+  </si>
+  <si>
+    <t>제주도 관광지에 멸종위기종 Ⅱ급 '노랑무궁화' 심는다</t>
+  </si>
+  <si>
+    <t>제주도-교육청 관광분야 MOU 체결</t>
+  </si>
+  <si>
+    <t>경기도-제주도, 중국사드보복 관광위기 “똘똘 뭉쳐 극복하자"</t>
+  </si>
+  <si>
+    <t>내국인 관광객들로 붐비는 제주도</t>
+  </si>
+  <si>
+    <t>한라산 인접 오라관광단지 개발 놓고 제주도-의회 공방</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 단체관광객 ‘환승 무비자’ 도입</t>
+  </si>
+  <si>
+    <t>유커 사라진 제주도…전체 관광객은 오히려 늘었다</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 유명 배우 캐서린 리 제주 관광 홍보대사로 위촉</t>
+  </si>
+  <si>
+    <t>제주도의회, 오라관광단지 환경영향평가 동의안 상정보류</t>
+  </si>
+  <si>
+    <t>경기도 기우회-제주도, 관광활성화 상생교류협력 나서</t>
+  </si>
+  <si>
+    <t>2017 제주도관광협회장배 아마추어 골프대회 개최</t>
+  </si>
+  <si>
+    <t>중국인 관광객 없지만 제주도 관광객 지난해보다 증가했다</t>
+  </si>
+  <si>
+    <t>러시아 대표 여행가이드북에 제주도 관광 첫 소개</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광포럼-JDC 공동세미나 개최</t>
+  </si>
+  <si>
+    <t>제주도교육청-제주관광공사, 특성화고 취업지원 협약체결</t>
+  </si>
+  <si>
+    <t>유커 빈자리 동남아 관광객으로…제주도, 동남아 하늘길 확대</t>
+  </si>
+  <si>
+    <t>동남아 단체관광객, 제주도 5일간 무비자 입국... 9월부터</t>
+  </si>
+  <si>
+    <t>제20회 제주도 관광기념품 공모전 개최</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 사드 여파 어려운 업체 컨설팅 지원</t>
+  </si>
+  <si>
+    <t>[사설] 유커 발길 끊긴 관광업계, 제주도와 남이섬을 보라</t>
+  </si>
+  <si>
+    <t>환경부, 제주도 관광지…야생생물 II급 '황근' 식제</t>
+  </si>
+  <si>
+    <t>제주도 부산도… 관광지마다 ‘신음’</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험</t>
+  </si>
+  <si>
+    <t>제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 베스트 관광인 선정</t>
+  </si>
+  <si>
+    <t>진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’</t>
+  </si>
+  <si>
+    <t>국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서</t>
+  </si>
+  <si>
     <t>제주도, 제20회 관광기념품 공모전 개최</t>
   </si>
   <si>
-    <t>제주도 부산도… 관광지마다 ‘신음’</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 이달의 베스트 관광인 선정</t>
-  </si>
-  <si>
-    <t>제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험</t>
-  </si>
-  <si>
-    <t>제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심</t>
-  </si>
-  <si>
-    <t>진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’</t>
-  </si>
-  <si>
-    <t>국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서</t>
-  </si>
-  <si>
     <t>제주도 사회협약위원, 상인회 접촉해 오라관광단지 반대 부추겨</t>
   </si>
   <si>
@@ -52,34 +154,133 @@
     <t>제주도관광협회, 제주 테마여행상품 공모 실시</t>
   </si>
   <si>
-    <t>제주도, 제20회 관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 제20회 관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 제20회 관광기념품 공모전 개최 김동일 기자 승인 2017.04.12 15:41 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 7월 17일부터 접수 진행 [제주일보=김동일 기자] 제주특별자치도는 대표적인 관광기념품을 발굴 및 육성하기 위해 제20회 제주도 관광기념품 공모전을 연다고 12일 밝혔다.특히 올해 공모전은 제주의 전통문화를 계승하는 기념품과 실용성을 갖춘 현대적 기념품을 발굴하기 위해 공모분야는 전통기념품과 현대기념품으로 각각 구분돼 치러진다.공모대상작은 민·공예품과 공산품, 가공품 등 관광객이 구매할 수 있는 모든 관광기념품으로, 응모자격은 제한이 없다.출품은 오는 7월 17일부터 같은 달 28일까지 제주도관광협회에 신청서를 제출하면 된다. 제주도는 심사를 거쳐 총 35점을 입상작으로 선정할 계획이다.입상자에게는 상장과 상금이 수여되고 상품개발자금 지원, 박람회 참가, 홍보물 제작, 관광진흥기금 융자신청 자격 부여 등의 특전이 주어진다.이승찬 제주도 관광국장은 “관광기념품 공모전을 통해 제주의 가치를 널리 알릴 수 있는 작품을 발굴·육성할 것”이라며 “입상작이 판매로 이어질 수 있도록 판로 개척에도 노력할 것”이라고 밝혔다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 부산도… 관광지마다 ‘신음’ - munhwa.com 모바일웹 | 지면보기 PDF | 2022.10.4 화요일 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ국제ㆍ인물ㆍ기획/시리즈 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ사설ㆍ시론ㆍ시평ㆍ포럼ㆍ뉴스와 시각ㆍ오후여담ㆍ문화논단ㆍ기고ㆍ살며 생각하며ㆍ여론마당 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ스포츠ㆍ국제ㆍ인물ㆍ삽화ㆍ그래픽/표 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ스포츠일반ㆍ야구ㆍ축구ㆍ농구ㆍ골프ㆍ배구 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ영화ㆍ가요ㆍ방송/연예 로그인ㆍ회원가입ㆍID/PW 찾기 전체리스트 로그인ㆍ회원가입ㆍID/PW 찾기 전체 이름순ㆍ정치부ㆍ경제부ㆍ산업부ㆍ사회부ㆍ전국부ㆍ국제부ㆍ문화부ㆍ체육부ㆍ사진부ㆍ디지털콘텐츠부 로그인ㆍ회원가입ㆍID/PW 찾기 별별 구독경제ㆍ세상의 모든 디저트ㆍ마음상담소ㆍ이 남자의 클래식ㆍ도시풍경ㆍ결혼했습니다ㆍ그립습니다 로그인ㆍ회원가입ㆍID/PW 찾기 전광판 Hot Click 경제일반 [경제] 게재 일자 : 2017년 04월 04일(火) 제주도 부산도… 관광지마다 ‘신음’ &amp;nbsp 제주, 관광기금 특별융자 지원 외국인전용 카지노 구조조정도 부산 기항 취소 中크루즈 증가 제주특별자치도는 지난 3일부터 일반여행업, 관광호텔, 콘도, 유람선, 카지노 등 27개 업종을 대상으로 300억 원 규모의 제주관광진흥기금 특별융자 지원에 들어갔다. 중국의 고고도미사일방어체계(THAAD·사드) 보복 조치로 유커(중국인 관광객)가 급감하면서 관련 업체들이 경영상의 심각한 어려움에 봉착했기 때문이다. 제주 카지노 운영 업체인 마제스타는 매출이 전년 대비 90% 이상 줄어들자 희망퇴직 절차를 밟고 있다. 전국 16개 외국인 전용 카지노 중 8개는 제주에 있는데 유커의 매출 비중이 90%에 달한다. 제주, 부산, 남이섬 등 지역 관광명소들이 눈덩이처럼 커지는 사드 피해로 신음하고 있다. 동남아와 일본, 중동 등과 내국인 관광객 유치를 통해 보완에 나섰지만, 방한 규모, 구매 객단가에서 격차가 커 매출 감소에 따른 지역경제 피해가 불가피할 것으로 전망된다. 4일 관련 업계에 따르면, 올해 들어 지난달 30일까지 제주를 방문한 유커는 44만807명으로 지난해보다 16.5% 감소했다. 제주의 중국계 여행업체, 중국인 단체 음식점, 전세버스 업체 등과 기타 특급·관광호텔 등이 유커 영향권에 포함돼 타격을 받고 있다. 부산도 지난달 15일 이후 부산기항을 취소한 중국발 크루즈선이 55척으로 늘었다. 한류 관광 1번지인 남이섬의 올해 1∼2월 유커 관광객은 3만5700명으로 지난해보다 28.9% 감소했다. 지난달 인천 엔타스 면세점을 찾은 유커 방문객은 350명으로 예년의 10분의 1 수준으로 줄었다. 라마다 인천 호텔은 지난 1∼3월에 월평균 17%가량 예약이 취소됐다. 이민종·최재규 기자 horizon@munhwa.com 이민종 기자 / 산업부 / 부장 이민종 기자의 다른 기사보기 [ 많이 본 기사 ] ▶ 전 CIA 국장 “푸틴이 핵무기 사용하면 미국이 러시아 군대.. ▶ 의원직 상실위기 최강욱 ‘채널A 기자 명예훼손 혐의’도 오.. ▶ [속보] 北, 동해쪽으로 탄도미사일 발사…日언론 “열도상.. ▶ 우크라, 동부 반격 이어 남부 헤르손서 러 방어선 돌파..... ▶ 팔.다리 부러뜨리고 ‘극단적 선택’까지 ... SNS가 전하는 .. [HOT! 포토] 고우리, 5세 연상 사업가와 결혼…“난 복 많은.. [HOT! 포토] 로켓펀치, 10월 5일 日 첫 정규 앨범 발매 [HOT! 포토] 정호연, 美 ‘타임 100 넥스트’ 선정…韓 배우 .. [HOT! 포토] 김선아 “각자 다른 행복의 기준을 채우는 것이.. [HOT! 포토] 유명 아이돌 멤버, 유흥업소 취직…“하고 싶었.. [HOT! 포토] ‘암투병’ 서정희 “사망 가짜 뉴스, 내 죽음 암시.. Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지 [ 구독신청:02-3701-5555 / 모바일 웹 : m.munhwa.com ] Please activate JavaScript for write a comment in LiveRe. 의원직 상실위기 최강욱 ‘채널A 기.. [속보] 北, 동해쪽으로 탄도미사일 발.. 우크라, 동부 반격 이어 남부 헤르손.. 팔.다리 부러뜨리고 ‘극단적 선택’까지.. 이스라엘 유적지서 동로마시대 금.. ‘인건비 부족’ 이유로 기증받은 인체조.. “막내아들 뻘 남편 곱게 봐달라” ... 3.. 文정부 초 “탈원전 추진 5년후 전기료.. 문 전 대통령, 감사원 서면조사 요구.. 에스파, 파리 홀렸다…프랑스 파리서.. [속보] 北, 동해쪽으로 탄도미사일.. 문 전 대통령, 감사원 서면조사 요구.. 국민의힘 “전 대통령 성역 아냐…‘법.. [속보]당정 “대선 공약 반영 정부조직.. 국무총리 정세균?...포항지진피해심.. “文 정부 5년간 경찰 고위직 호남· P.. [속보] 북한, 동쪽으로 탄도미사일 발.. 윤 정부 고위공직후보 사전질문 첫 공.. [속보]尹, 감사원 文 조사 논란에 “감.. 北, 5년 1개월만 IRBM 일본 상공 통과.. 文정부 초 “탈원전 추진 5년후 전기.. ‘삼전은 믿는다?’...‘4만 전자’ 위기에.. 文정부 집값 급등으로 작년 종부세 한.. ‘내 집 마련 꿈’ 담긴 청약예치금 ‘105.. 최근 6년간 새마을금고 임직원 비리.. 나도 모르는 내 취향을 알아챈다…대.. 국내 500대 기업 전문경영인 57%가 .. 모듈러 공법부터 로봇견·AI·AR까지.... 2ℓ 맥주·500㎖ 커피…고물가에 ‘대용.. 생산 全과정 폐기물·탄소 ‘Zero’… 순.. 에스파, 파리 홀렸다…프랑스 파리.. “상상도 못할 말로 우릴 씹어대”…박.. 블랙핑크 제니, 사생활 사진 유포자 .. 고우리, 5세 연상 사업가와 결혼…“난.. ‘공조2’ 600만 돌파…4주 연속 주말.. 강태관, 오늘(2일) 정오 퓨전 국악 발.. 구혜선 “마음이 힘들어 살쪘어요”…달.. 박은빈, 美 크리틱스초이스 주관 행사.. ‘공조2’ 3일 만에 박스오피스 정상 탈.. 엄정화 “유재석이 보컬레슨비 사비로.. 이스라엘 유적지서 동로마시대 금.. 국무총리 정세균?...포항지진피해심의.. 호텔 객실·오피스텔 금고에 마약이….. [속보]尹, 감사원 文 조사 논란에 “감.. “상상도 못할 말로 우릴 씹어대”…박.. ● 딸과의 대화 ● 비굴한 변명 ● 부부의 변심 ● 모범시민 ● 8을 반으로 나누면 ● 오늘의 운세 ● 라운드 후 건배사 ● 다채로운 상 2 ● 다채로운 상 ● 골퍼의 기도 회사소개 | 광고안내 | 사업안내 | 이용안내 | 구독안내 | 독자참여 | 회원서비스 | 고충처리 | 개인정보취급방침 | 청소년보호정책(책임자:한형민) | Site Map 제호 : 문화일보 | 주소 : 서울시 중구 새문안로 22 | 등록번호 : 서울특별시 아01697 | 등록일자 : 2011.7.15 | 회장 : 이병규 | 발행·편집인 : 김병직 | 발행연월일 : 1991.11.1Copyright ⓒ 문화일보. All Rights Reserved. ☎ 02) 3701-5114</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 이달의 베스트 관광인 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 이달의 베스트 관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 이달의 베스트 관광인 선정 이승현 기자 승인 2017.04.16 11:43 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=이승현 기자] 제주특별자치도관광협회(회장 김영진)는 지난 13일 제주웰컴센터에서 ‘칭찬합시다’ 이달의 베스트 관광인으로 임정환 ok승마장 부장을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다.이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 편집팀 iheadline@hanmail.net 승인 2017.04.15 15:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 고철원, 곡천화원 대표)는 15일 도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 120여명과 함께 가파도 청보리 축제를 체험하는 등반동호회 행사를 가졌다.이번 행사는 18만여평 보리잎의 푸른 생명이 절정을 이루는 가파도 청보리축제 참가를 통해 제주 지역축제활성화, 제주관광상품 개발 및 도내 관광업종 간 상호 네트워크를 구축하는 자리로 마련됐다.제주특별자치도관광협회 등반동호회는 도내 관광자원 현장체험을 통해 제주의 다양한 관광상품을 개발‧촉진하고 관광으로 만들어가는 희망찬 제주를 만들기 위해 적극 앞장서 나갈 계획이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.04.03 16:12 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 4~14일 제350회 임시회…오라단지 환경영향평가 동의안 등 74건 처리 예정제주 최대 규모의 개발사업인 오라관광단지 개발사업이 순항할지, 4일부터 열리는 제주도의회 제350회 임시회에 도민사회의 이목이 집중되고 있다.또 임기 1년 밖에 남지 않은 원희룡 지사 및 이석문 교육감을 상대로 한 도정·교육행정질문이 진행될 예정이어서 여·야의 치열한 공방이 예상된다.제주도의회는 4일 오후 2시 제1차 본회의를 시작으로 오는 14일까지 11일 회기로 제350회 임시회를 개최한다. 이번 회기에는 조례안 10건, 동의안 63건(민간위탁 44건), 기금안 1건 등 74건의 의안이 제출되어 있다.특히 이번 회기에는 난개발 및 특혜 논란의 중심에 서 있는 오라관광단지 조성사업 환경영향평가 동의안이 처리될 예정이어서 관심이 모아진다.앞서 제주경실련은 지난달 30일 기자회견을 열고 동의안 부결을 촉구하는 등 환경·시민단체의 반발이 거세다.이와 함께 4.3사건 발발 70주년을 앞두고 4.3특별위원회가 제출한 ‘배·보상 및 신고상설화 조속 마련 촉구결의안’과 환경도시위원회가 제출한 ‘제주기점 항공운임 인상철회 촉구 결의안’이 처리될 예정이다.이 밖에도 공유재산관리계획변경안, 요석산업 토석채취 확장사업 환경영향평가서 협의내용 동의안, ‘감귤 생산·유통 조례 개정안’과 서귀포 부영아파트 횡포를 고발한다는 내용의 진정의 건 등이 처리된다.10일부터 13일까지 나흘에 걸쳐서는 임기 말년에 접어든 원희룡 도지사와 이석문 교육감을 상대로 도정 및 교육행정질문이 진행될 예정이어서 내년 지방선거를 앞두고 지방권력 교체를 놓고 창과 방패의 싸움이 치열하게 전개될 것으로 보인다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 2022.10.04 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 전체 카테고리 정책 보건ㆍ복지 여성 인권 노동 환경 교육 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 건강 가정의학 내과 비뇨기과 산부인과 소아과 신경과 신경외과 안과 외과 이비인후과 정신과 정형외과 치과 피부과 암 산업 제약 바이오 의료기 화장품 식품 생활용품 금융 기업탐방 유통 레저ㆍ스포츠 기타 사건ㆍ사고 메디컬 일반 지구촌 지구촌 의료법&amp;톡 메디포토 보건ㆍ복지 의료계 동향 기업 Focus 오늘의 인물 환경 웰빙 웰빙 뷰티 육아ㆍ교육 DRUG FOOD 실버 DIET 性 여성 흡연ㆍ음주 기타 기자수첩 종합 칼럼 포토 인사 Fun&amp;Life(IR) 행사 광고 방송 e-뉴스 정치 경제 사회 생활문화 연예 스포츠 IT과학 세계 검색 HOME &gt; 의료 &gt; 의료산업 진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 박종헌 / 기사승인 : 2017-04-06 18:12:47 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사 한국보건산업진흥원(이하 진흥원)은 제주특별자치도, 제주관광공사와 함께 중화권 의료관광객 유치 활성화를 위해 해외 파워블로거를 초청, 제주에서 오는 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사를 개최한다고 6일 밝혔다. 이번 행사는 중국정부의 중국 관광객 방한 제재 조치에 대응해 시장 다변화·의료관광 등 고부가가치 관광을 활성화하기 위한 진흥원과 제주도, 제주관광공사의 적극적인 협력으로 성사됐다. 이번 체험 행사를 통해 제주도가 사드 여파에 효과적으로 대응할 수 있도록 하는 동시에 한국의료관광의 매력을 세계에 알릴 수 있는 홍보 컨텐츠를 창출, 다양한 온라인 채널을 통해 홍보할 계획이다. 이번 행사에 참여하는 해외 파워블로거는 홍콩, 대만, 중국, 말레이시아, 싱가포르 등에서 영화, 드라마, CF 활동을 하며 페이스북, 인스타그램, 웨이보 등에서 200만명 이상의 팔로어를 보유하고 있는 말레이시아 국적의 캐서린 리이다. 진흥원 관계자는 “이번 체험 행사가 한국의 매력적인 의료관광을 중화권 지역에 확산시키고, 의료관광객 유치 시장 다변화에 기여하여 사드 파고를 넘을 수 있는 좋은 계기가 될 것”이라고 밝혔다. 메디컬투데이 박종헌 (pyngmin@mdtoday.co.kr) [저작권자ⓒ 메디컬투데이. 무단전재-재배포 금지] 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 https://www.mdtoday.co.kr/news/view/179587462630853 URL복사 URL주소가 복사 되었습니다. 관련기사 '항암효과' 세큐리네가 천연물의 총괄적 합성 원천기술 개발트라이업, K-HOSPITAL 참가…올인원 의료솔루션 브랜드 ‘모션’ 론칭KAIST, 모발 이식에 적용 가능한 생체친화적 접착제 개발“당신의 건강은 무슨 색?”…스트레처블 광 소자 전기 조절 색 변화 원리 규명DGIST, 초음파 조직 투명화 기술 개발…“더 깊고 세밀하게 관찰” 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 ‘수술 중 자가 혈소판 풍부 혈장 치료술’ 등 신의료기술 5건 인정식약처, 양식 수산물 동물용의약품 잔류 검사 실시발달장애인 주간활동서비스는 ‘그림의 떡’…서비스 이용시 활동지원 최대 56시간 차감유명 커피 프랜차이즈 중 식품위생법 위반 투썸플레이스 최다…메가커피‧이디야 뒤이어LH 어린이집 34곳서 ‘석면’ 검출…지자체 통보 후 후속조치 無합법적 인공임신중절수술 감소세…女 10명 중 3명 ‘임신 8주 이내’ 수술 주요기사 ‘착한 단백질’ 비건 식품…나트륨은 비슷제약 많고 자영업자만 처벌받는 '방역 위반 신고' 형평·실효성 논란인플루언서가 말한 다이어트템…‘부당광고’ 여전수입 캔디서 발기부전치료제 유사물질 검출…판매중단 및 회수나노입자의 광열특성 측정 '2in1' 현미경 개발원전 비정규직, 정규직比 산재 피해 9배·피폭량 7배 달해 HEADLINE 5년간 ‘방사능 오염 고철’ 1.7톤 매립…대부분 충청권에 ‘슬쩍’ 살아 움직이는 벌레 검출된 ‘노바스크’…비아트리스 측 “공정상 이상 없다” 중앙약심위, 줄기세포치료제 ‘조인트스템’ 허가에…“추가자료 제출 필요” 많이 본 기사 1철도산업 기술 발전과 해외 진출 활성화 해법 논의2어린이집 CCTV 설치율 100% 근접했지만 아동학대는 여전3보험사, 보험사기 적발하고 고발은 미온적 왜?4연간 노인 진료비 41조…4년새 46% 증가5심리상담실 플랫폼 ‘바른상담실 상담:인’ 론칭 PHOTO NEWS 케이메디허브, 공공기관 최대 규모 GMP설비 가동 랩지노믹스, 룩원바이오융합연구재단과 업무협약…美 시장 진출 박차 케이메디허브, 아이비엠솔과 체외진단 기술 개발 업무협약 개인정보취급방침 이용약관 청소년보호정책 윤리강령 기사제보 제휴문의 클린신고 서울시 동작구 사당동 86-6 서송타워 7층 | 대표전화 : 02-561-4494 | 팩스 : 02-554-9597 제호 : 메디컬투데이 | 등록번호 : 서울 아00177 | 등록일 : 2006-02-23 | 발행인 : 김상원 | 편집인 : 신현정 | 청소년보호책임자 : 김교식 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신현정 | 02-561-4494 | mdtoday@mdtoday.co.kr 본 콘텐츠의 저작권은 메디컬투데이 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 메디컬투데이 All rights reserved. 제보메일 : mdtoday@mdtoday.co.kr</t>
-  </si>
-  <si>
-    <t>국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서 인터넷 마케팅팀 입력: 2017-04-06 15:44 우리나라에서 가장 먼저 봄을 맞는 제주는 봄꽃을 만끽할 수 있는 최적의 장소다. 특히 벚꽃 중에서도 잎이 가장 큰 제주 왕벚꽃을 감상할 수 있어, 내국인 관광객들의 관심을 한 몸에 받고 있다. 올해 4월과 5월에는 단거리 여행을 즐길 수 있는 황금연휴가 있어 국내 여행객이 급증할 것으로 예상된다. 제주도 관광지인 생물권보전지역, 세계자연유산, 세계지질공원 등 유네스코 3관왕을 달성한 이 곳은 볼거리와 구경거리가 가득한 천혜의 자연경관으로 명성이 높다. 가장 먼저 천연보호구역인 서귀포 해양 도립공원와 다양한 식물군이 분포하는 한라산은 제주도 관광지의 필수 코스이다. 올레길은 시흥-광치기 코스부터 시계 방향으로 총 21코스까지 해안을 따라 조성되어 있으며, 제주 남쪽에 있는 10코스는 용머리 해안과 송악산, 화순 금모래 해변 모슬포 항 등이 있다. 3월과 4월에는 한림공원 튤립축제, 서귀포 유채꽃축제 등이 개최될 전망이다. 이처럼 제주도는 합리적으로 국내 여행을 즐길 수 있도록 다양한 서비스와 사업을 구축하고 있다. 그 가운데 숙소 및 렌트카 사업이 대표적인데, 렌터카 사업은 국내 전체 렌트카 시장 장 가장 치열한 경쟁을 벌이고 있는 시장이다. 제주도 렌터카 업체는 2014년 82개 업체, 2015년 93개 업체, 2016년 110개 업체로 해가 지날수록 점점 증가하는 추세다. 이러한 과열 경쟁 속에 설립된 제주도렌트카협동조합 JRCOOP은 소규모 제주도렌트카들이 모여 설립됐다. 제주도렌트카협동조합 JRCOOP는 총 3,500여 대 차량을 보유해 소비자에게 다양한 선택의 기회를 제공하며 자체 정비소를 통한 확실한 정비로 사고 위험성 감소는 물론 사업 공동화 운영을 꾀하고 있다. 관계자는 "고객들에게 보다 저렴한 판매와 양질의 서비스 제공을 제공한다" 면서 "렌트카 가격 안정화 및 경쟁력 향상을 위해 노력할 것"이라고 전했다. 한편, 이 곳은 제주도렌트카 이용 고객들을 대상으로 인터넷 신문고 서비스를 개시하며 고객들의 불편사항을 적극적으로 개선하고 있다. 더 자세한 사항은 홈페이지를 통해 확인할 수 있다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+    <t>제주도, 관광개발사업 투자․고용 실적 체계적 관리한다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 관광개발사업 투자․고용 실적 체계적 관리한다 (제주=뉴스1) 이석형 기자					| 2017-04-30 09:46 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청사© News1 제주도는 개발사업장 및 투자진흥지구에 대한 체계적인 관리로 지역 경제의 지속적인 성장을 견인해 나가기 위해 관리시스템을 개선하고 오는 5월부터 본격 운영한다고 30일 밝혔다.도는 투자진흥지구 투자자정보, 사업계획 및 고용계획 등을 입력·관리해오던 기존의 투자진흥지구 관리시스템을 확대해 관광개발(유원지 포함) 사업장에 대해서도 투자실적, 도민고용, 지역업체 참여도 등 지역소득 연계 추진실적을 사업자가 직접 입력할 수 있도록 개선할 계획이다. 이번 관리시스템의 개선으로 도는 관광개발(유원지 포함) 44곳, 투자진흥지구 45곳 등 90여 개의 사업장의 체계적인관리가 가능할 것으로 전망하고 있다. 도는 시스템에 입력된 사업장의 자료를 바탕으로 추진상황이 미진한 사업장에 대해서는 직접 현장 점검도 나설 계획이다. 또 기업의 경영권을 해치지 않는 범위에서 관광개발사업 및 투자진흥지구의 사업추진 실적을 연2회(2월, 8월) 도 홈페이지를 통해 공개함으로써 개발사업 관리에 투명성을 제고할 방침이다. 이승찬 제주도 관광국장은“개발사업에 대한 관리시스템의 개선으로 관광(단)지, 유원지, 투자진흥지구 사업장에 대한 체계적·효율적인 관리를 통해 고용창출과 지역경제 파급효과를 도민이 체감할 수 있는 환경이 만들어질 것으로 기대된다”고 말했다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도-베트남 여행사 인센티브 관광 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도-베트남 여행사 인센티브 관광 협약 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 제주도 전성태 행정부지사(가운데)와 제주관광공사, 제주컨벤션뷰로, 한국관광공사 하노이지사 관계자들이 지난 27일 베트남 호찌민에서 현지 5대 여행사와 베트남 기업체 인센티브 관광객 5천 명을 제주로 보내는 협약을 체결하고 나서 기념촬영을 하고 있다. 2017.4.30 [제주도 제공=연합뉴스] khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/04/30 06:00 송고 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 10-11 09:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>제주도, 여의도서 '관광보은' 길거리공연…700명 어깨 들썩 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 여의도서 '관광보은' 길거리공연…700명 어깨 들썩 등록 2017.04.21 17:12:42 작게 크게 【제주=뉴시스】강정만 기자 =  제주특별자치도 서울본부가 21일 오전 서울 여의도 빌딩숲에서 주최한 거리공연인 국악 ‘런치 버스킹(Lunch busking)’에서 공연팀들이 연주를 하고 있다. 2017.04.21 (사진= 제주도청 제공). photo@newsis.com 【제주=뉴시스】강정만 기자 = 제주특별자치도 서울본부가 21일 낮 12시20분부터 1시까지 서울 여의도 빌딩숲에서 길거리공연인 국악 ‘런치 버스킹(Lunch busking)’을 펼쳐 오가는 사람들의 눈길을 끌었다. 서울본부가 위치한 여의도 동우국제빌딩 앞에서 진행된 이 거리공연으로 인해 점심식사를 마치고 지나가던 700여명의 직장인들은 어깨를 들썩이며 잠깐의 여유를 즐겼다. 이날 행사는 서울본부를 비롯해 제주개발공사와 제주관광공사 등 서울 소재 제주기관들이, 사드로 인해 중국 관광객이 급감한 상황에도 불구하고 더 많은 국민들이 제주를 찾아주는데 대한 감사의 뜻으로 마련됐다. 이 자리에는 민요소리꾼 유현지, 조용주, 박원희, 제주 출신 기타 연주자 김나린, 제주 출신 가야금 연주자 고주연, 해금 연주자 박유진, 콘트라베이시스트 이동혁과 첼리스트 윤소정 등이 출연했다. 공연은 젊은 춤꾼 백승민과 권아림의 한국무용을 끝으로 마무리됐다. 서울본부는 여기에 참석한 시민들에게 청정 제주의 대표주자인 삼다수와 제주 관광책자를 무료로 제공했다. 김방훈 제주도 정무부지사는 이날 “최근 제주도 관광객이 줄어들까 걱정했는데, 전국에서 수학여행과 관광을 많이 와주셔서 감사하다”며 “싱그러운 5월에 아름다운 제주로 초대한다”고 말했다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>관광지로 유명한 제주도 서귀포 중문에서는 제주흑돼지 맛집도 빠지면 아쉬운 여행코스 &lt; 이슈 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 관광지로 유명한 제주도 서귀포 중문에서는 제주흑돼지 맛집도 빠지면 아쉬운 여행코스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 이슈 관광지로 유명한 제주도 서귀포 중문에서는 제주흑돼지 맛집도 빠지면 아쉬운 여행코스 기자명 이정형 기자 입력 2017.04.28 06:27 수정 2018.09.22 14:33 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도에 가면 많은 사람들이 빼놓지 않고 먹는 먹거리가 크게 두 가지 있다. 신선한 회와 제주흑돼지가 바로 그것. 그 중에서도 제주흑돼지는 특유의 식감과 함께 만족할만한 포만감을 주기 때문에 특히 인기가 높고 맛집들도 많다.   서귀포 중문 ‘꺼멍목장’도 맛집 중 하나로 알려진 곳이다. 전형적인 고깃집을 탈피, 깔끔하고 세련된 인테리어로 모던한 분위기를 연출하고 있다는 점이 일단 호기심을 자극한다.   넒은 규모의 매장에 테이블 간격이 넓어 비좁지 않다. 무엇보다 매장 전체가 통유리로 되어 있어 입으로는 맛있는 제주흑돼지를 즐길 수 있고 눈으로는 제주의 아름다운 풍광을 감상할 수 있다.  ▲ 사진제공=제주도 서귀포시 하원동 '꺼멍목장'      메뉴 역시 분위기만큼이나 세련되고 퀄리티가 높다는 평이다. 제주흑돼지오겹살과 목살, 제주 백돼지오겹살, 목살로 제공되며 입맛과 취향에 따라 골라 주문하면 된다.   어떤 메뉴를 주문해도 엄격한 품질 검수를 통해 제공되기 때문에 맛있게 즐길 수 있으며, 참숯에 구워내어 잡내는 없고 육즙은 풍부한 것은 서귀포 중문 흑돼지 맛집만의 매력.   그냥 스쳐 지나갈 법한 곁들임 메뉴도 이곳에서는 특별하다. 김치, 샐러드, 계란찜, 파절이 외에 옥돔구이 한 마리가 통째로 제공된다는 점이 파격적인 것. 귀한 대접을 받는 음식이 메인이 아닌 기본반찬으로 제공된다.   제주흑돼지를 보다 특별하게 즐길 수 있는 곳을 목표로 매장을 연출해 지금의 아늑하고 세련된 고깃집을 완성하게 되었다는 게 주인장의 말이다. [뉴스컬처 NCTV] [뉴스컬처 360VR][뉴스컬처 연예TV][네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주흑돼지맛집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>봄 여행 주간 제주도 여행, 볼거리 풍부한 서귀포 관광 후 맛집 즐겨볼까 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 봄 여행 주간 제주도 여행, 볼거리 풍부한 서귀포 관광 후 맛집 즐겨볼까 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 봄 여행 주간 제주도 여행, 볼거리 풍부한 서귀포 관광 후 맛집 즐겨볼까 유지형 승인 2017.04.29 09:00 수정 2017.04.28 17:21 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 제주도는 국내 여행지 중에서도 선호도가 높은 지역으로 잘 알려져 있다. 익스피디아가 20~40대 남녀 직장인 1000명을 대상으로 실시한 설문조사에 따르면 국내 선호여행지 1위는 단연 제주도(151건)였고, 경기도(122건), 강원도(103건)가 그 뒤를 이었다.이렇듯 많은 직장인들이 제주도 여행을 꿈꾸고 있으며, 무엇보다 온화한 날씨와 이국적이면서도 아름다운 해안풍경을 자랑하는 서귀포시는 이들의 선호 여행지로 자리잡고 있다. 특히 서귀포시 중문은 아름다운 제주바다를 한눈에 담을 수 있는 중문해수욕장이 유명한데, 중문은 굳이 해안가 관광지가 아니더라도 중문관광단지, 천제연폭포, 올레길, 여미지식물원, 아프리카박물관 등 다채로운 실내외 관광지를 갖추고 있어 제주를 대표하는 관광지로 인정받고 있다. 최근 제주를 찾는 젊은 세대들은 제주도에서의 여행시간을 보다 특별하게 보내기 위해 인증된 제주 서귀포 맛집을 둘러보며 제주도를 오감으로 느끼고 있다. 그중 제주 7대 향토음식점으로 알려진 ‘대기정’은 지역주민들을 비롯해 관광객들에게 우수한 맛과 품질로 인정받고 있다. 10년의 전통을 자랑하는 이곳은 갈치회, 갈치조림, 통갈치구이 등 단품메뉴와 스페셜세트 메뉴를 갖추고 있다. 갈치스페셜 주문 시 갈치조림, 갈치구이, 갈치회, 기본찬이 제공되며, 전복돌솥밥은 전복양이 푸짐하고 비리지 않아 개우와 전복을 좋아하지 않는 아이들에게도 안성맞춤이라는 평이다. 간장과 마가린이 함께 나와 취향에 맞게 조절해 먹을 수 있는 것이 특징이다.이 밖에도 제주도에서만 맛볼 수 있는 성게비빔밥은 싱싱한 성게만을 사용하여 성게의 향이 향긋하고 야채와 양념장의 조화가 일품이다. 갈치회는 초고추장, 야채초무침 3가지에 버무려 먹을 수 있다. 관계자는 “최상품 갈치를 공수하기 위해 일기예보를 항상 체크하고 있다”며, “기후가 안좋아 갈치배가 출항을 못할 경우를 대비해 미리 크고 신선도 높은 갈치를 준비해 놓은다”고 전했다. 한편, 제주도 중문단지 인근 ‘대기정’ 서귀포 맛집은 1~2층으로 규모로, 1층에서는 수많은 도자기와 함께 향토음식점다운 편안한 분위기를 느낄 수 있으며, 2층은 고급 일식집 못지 않은 실내인테리어를 자랑한다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰리는 성산일출봉, 섭지코지에는 돔베고기 등 향토음식 눈길 끄는 맛집도 인기 &lt; 이슈 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 몰리는 성산일출봉, 섭지코지에는 돔베고기 등 향토음식 눈길 끄는 맛집도 인기 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 이슈 제주도 관광객 몰리는 성산일출봉, 섭지코지에는 돔베고기 등 향토음식 눈길 끄는 맛집도 인기 기자명 이정형 기자 입력 2017.04.28 05:59 수정 2018.09.22 14:33 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 5월 황금연휴에 맞춰  제주도 여행을 계획하는 사람들이 많다.  국내에서 으뜸으로 꼽히는 여행지 제주도에서도 특히 서귀포는 연중 온화한 날씨로 여행하기 좋은 곳으로 알려져 있다.   서귀포에 위치하는 성산일출봉, 섭지코지 등은 매년 제주도에서 가장 방문객 수가 많은 여행지로 꼽히고 있으며, 제주도의 향토 음식을 맛볼 수 있는 맛집들이 찾아볼 수 있다.   성산일출봉, 섭지코지 인근에서 제주도 향토음식 돔베고기를 비롯 활어회 등 다양하게 맛볼 수 있는 ‘옛날옛적’도 그중 하나다. 부드러운 돔베고기와 싱싱한 활어회, 우럭탕수 등 메뉴를 갖추고 있다.    이집의 ‘옛날 상차림’은 회와 고기를 함께 맛볼 수 있다. 이에 회를 못 먹는 어린 아이들과 회를 좋아하는 어른들까지 모두를 만족시킬 수 있어 가족 단위 고객들에게 인기 메뉴다. 깔끔하고 아늑한 내부와 넓은 주차시설을 갖춰 피로연이나 모임장소로도 제격이다.   수익금의 일부를 지역사회 어려운 이웃을 위해 기부하고 동네 어르신들을 초대하여 식사를 대접하는 모습에서는 배려심을 느낄 수 있다.   “제주도여행에서도 든든한 집밥을 드실 수 있도록 정성 들여 음식을 준비하고 있습니다. 언제나 신선하고 건강한 재료로 제주 향토음식을 제대로 맛볼 수 있도록 하겠습니다.” 성산일출봉 섭지코지 맛집의 각오가 느껴지는 말이다. [뉴스컬처 NCTV] [뉴스컬처 360VR][뉴스컬처 연예TV][네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #성산일출봉맛집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광시장다변화…유관기관 합동 현지마케팅 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광시장다변화…유관기관 합동 현지마케팅 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도 관광시장다변화…유관기관 합동 현지마케팅 추진 기자명 고병수 기자 입력 2017.04.27 16:52 수정 2017.04.27 16:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 기업 인센티브단 MOU...홍콩 B2B 상담회 설명회 추진 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 사드 극복 및 시장다변화를 위해 전성태 행정부지사를 단장으로 道, 제주관광공사, 제주컨벤션뷰로, 제주도관광협회 및 도내 12개 관광사업체가 참여하는 합동 현지출장단을 구성하고 27일부터 2박3일 일정으로 베트남 호찌민과 홍콩을 방문한다.도에 따르면 베트남 지역은 베트남 1위 민영항공사인 비엣젯 에어를 방문해 제주-베트남 직항 노선의 필요성을 설명하고 비엣젯 에어의 향후 계획 및 의견을 청취할 예정이다.또한 올해 5천명 이상의 베트남 관광객을 유치를 위해 베트남 주요 5개 여행사와 제주관광공사, 제주컨벤션뷰로, 한국관광공사 하노이지사간 인센티브 관광객 유치를 위한 다자간 MOU를 체결할 예정이다. 홍콩지역에서는 도내 12개 관광사업체가 참여하는 B2B 상담회(도내 관광업계와 현지 여행업계간 관광상품 및 관광객 유치 상담회)를 개최해 도내업계의 현지시장 진출을 지원한다.그리고 제주관광설명회를 통해 100여개의 여행사 및 언론인 대상으로 제주의 우수한 자연문화 관광 자원과 교통체계 개편 및 스마트관광 추진내용을 홍보하는 등 홍콩 및 중국 남방지역 개별관광객 유치 마케팅을 추진할 예정이다. 이와 함께 홍콩-제주 직항편을 운항하는 항공사 관계자와 면담해 제주 직항편 증편에 따른 관광객 유치협력 방안도 논의할 계획이다.  관계자는 "이번 베트남과 홍콩 방문을 통해 동남아 시장 활성화, 중국 남방지역과 연계한 홍콩 개별 관광객 집중 공략, 항공 접근성 확대에 더욱 박차를 가해 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'개발 가이드라인' 저촉 상가관광지 제주도 120억에 매입 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:26 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 '개발 가이드라인' 저촉 상가관광지 제주도 120억에 매입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 '개발 가이드라인' 저촉 상가관광지 제주도 120억에 매입 기자명 이승록 기자					(leerevol@naver.com) 입력 2017.04.26 09:59 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 상가관광지 예정부지. 제주도가 제주시 애월읍 상가관광지 부지 매입 절차에 돌입했다. 제주도는 최근 상가관광지 개발사업자인 청봉인베스트먼트㈜와 부동산 매매계약을 체결했다고 26일 밝혔다. 매입 부지는 목장용지 등 5필지 18만8922㎡(5만7249평)로, 매매대금 120억원 가운데 계약금 36억여원을 사업자에게 지급했다. 나머지 83억여원은 제주도 1회 추가경정예산으로 확보한다는 계획이다. 앞서 제주도는 지난해 11월 공유재산심의회를 열어 상가관광지 부지 매입을 결정했고, 도의회 공유재산관리계획 변경 심의를 거쳤다. 상가리 관광지 조성사업은 재일동포 자본인 (주)청봉인베스트먼트가 애월읍 상가리 중산간지역 약 44만㎡에 사업비 2000억원을 투자해 조성하려던 ‘한류문화복합시설’이다. 하지만 사업부지 44만㎡ 중 44.2%가 국공유지인데다, 환경부 멸종위기종인 ‘애기뿔소똥구리’ 서식처로 드러나 환경단체의 반발을 샀다.여기에 사업부지는 해발 500m 이상이 80%에 달하고, 산록도로 위쪽에 위치해 원희룡 도정이 제시한 가이드라인에 저촉돼 개발이 사실상 불가능한 곳이다.이 때문에 당국이 아예 개발사업이 이뤄지지 못하게 사업부지를 사들이게 된 것이다. 제주도는 상가리 부지를 매입하는 대신 어음리 비축토지 41만267㎡를 사업자에게 매각하는 방안을 검토하고 있다. 문제는 제주도의회가 어음리 비축토지 매각에 반대하고 있어 실제로 이뤄질 가능성은 낮은 것으로 전망된다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중국인이 떠난 제주도에 내국인 관광객들이 채운다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 중국인이 떠난 제주도에 내국인 관광객들이 채운다 썰렁한 모습일 것이라는 예상과 달리 내국인 관광객들의 제주도 방문이 늘어 제주 국제공항에 발 디딜 틈 없이 붐비고 있다. 장영훈 기자 2017-04-23 07:16:19 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 연합뉴스[인사이트] 장영훈 기자 = 중국 정부의 한반도 사드(THAAD·고고도미사일방어체계) 배치에 대한 보복 조치로 제주도에는 중국인 관광객들의 발길이 끊겼다.하지만 썰렁한 모습일 것이라는 예상과 달리 오히려 내국인 관광객들의 제주도 방문이 늘어 제주 국제공항에 발 디딜 틈 없이 붐비고 있다.지난 21일 제주특별자치도에 따르면 올해 들어 제주도에 입도한 관광객은 430만 279명으로 지난해 같은 기간 420만 4,464명보다 2.3% 증가했다. 이는 내국인의 제주도 관광이 증가했기 때문이다.실제 같은 기간 내국인 입도관광객은 370만 8,577명으로 지난해 같은 기간 338만 5,901명보다 무려 32만 2,676명(9.5%)이 증가하는 모습을 보였다.중국인 관광객들의 제주도 방문수가 크게 줄어들었지만 다른 외국인 관광객들의 방문수가 소폭 증가했다는 점도 눈에 띈다.제주도를 찾은 내국인 관광객들의 대부분은 제주도가 중국인으로 붐비지 않아 관광하기 너무 좋다는 반응을 보였다.박모(38, 여) 씨는 "제주도민들 입장에서는 중국 관광객들이 안 오면 안 좋겠지만, 관광객 입장에서는 중국인이 없다는 점이 장점"이라며 "중국인들 발에 안 걸려서 좋다"고 말했다.제주 한 관광업계 관계자는 "요즘에는 일본인 관광객들이 늘었다"며 "사라진 직항들이 생겨나면서 오히려 더 좋아졌다"고 말했다.중국인 관광객이 사라진 제주도는 내국인 관광객들뿐만 아니라 다른 외국인 관광객들에게 전보다 더 매력적인 관광지로 탈바꿈하고 있다. 장영훈 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 상가관광지 매입절차 돌입 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 상가관광지 매입절차 돌입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 상가관광지 매입절차 돌입 기자명 김경필 기자 입력 2017.04.25 15:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 120억원에 부동산 매매계약…1회 추경에 예산 확보사업자측 비축토지 활용 검토…실제 투자는 불투명제주도가 제주시 애월읍 중산간에 계획된 상가관광지 부지 매입절차에 돌입했다. 도는 최근 상가관광지 개발사업자인 청봉인베스트먼트㈜와 부동산 매매계약을 체결했다. 도가 이번 계약을 통해 매입하는 부지는 목장용지 등 5필지 18만8922㎡로 매매대금 120억원 가운데 계약금 36억여원을 사업자에게 지급했다. 나머지 83억여원은 제주도 1회 추가경정예산으로 확보한다는 계획이다. 앞서 도는 지난해 11월 공유재산심의회를 열고 상가관광지 부지 매입을 결정했고, 도의회 공유재산관리계획 변경 심의를 거쳤다. 이처럼 사업자가 상가관광지 개발을 위한 대부분의 행정절차를 거친 상황에서 도가 사업부지를 매입할 수 있었던 것은 사업자의 동의가 있었기 때문이다. 도는 애월읍 상가리 부지를 매입하는 대신 어음리 비축토지 41만267㎡를 사업자에게 매각하는 방안을 검토하고 있다. 이에 따라 사업자도 어음리 비축토지를 활용해 개발사업을 추진하는 방안을 구상중이지만 실제 투자로 이어질 수 있을지는 불투명한 실정이다. 개발계획을 새롭게 수립하고 행정절차를 처음부터 다시 밟아야 하며, 자칫 계획 차질로 추가 손실을 입을 수 있기 때문이다. 청봉인베스트먼트㈜ 관계자는 "현재 새로운 사업계획을 구상중이긴 하지만 실제 투자로 이어질 수 있을지는 불투명하다"며 "제주에 대한 투자 가치 등을 재검토해야 하는 상황"이라고 밝혔다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>경인일보 : '배틀트립'김숙, 제주도서 나홀로 웨딩 촬영…관광객 들러리로 즉석 섭외 경인일보 제보안내 경인일보는 독자 여러분의 소중한 제보를 기다립니다. 제보자 신분은 경인일보 보도 준칙에 의해 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 제보 방법은 홈페이지 외에도 이메일 및 카카오톡을 통해 제보할 수 있습니다. - 이메일 문의 : jebo@kyeongin.com - 카카오톡 ID : @경인일보 개인정보의 수집 및 이용에 대한 안내 수집항목 : 회사명, 이름, 전화번호, 이메일 수집목적 : 본인확인, 접수 및 결과 회신 이용기간 : 원칙적으로 개인정보 수집 및 이용목적이 달성된 후에 해당정보를 지체없이 파기합니다. 개인정보 수집 및 이용에 동의합니다. 기사제보 개인정보 보호를 위해 익명 제보가 가능합니다. 단, 추가 취재가 필요한 제보자는 연락처를 정확히 입력해주시기 바랍니다. *최대 용량 10MB 제보하기 전체메뉴 검색 오피니언 인천 지역 정치 경제 사회 문화 스포츠 로그인 회원가입 뉴스홈 전체기사 정치 경제 사회 문화 스포츠 사람들 기획(경기) 기획(인천) 특집 오피니언 오피니언 홈 사설 참성단 윤인수칼럼 경인칼럼 기명칼럼 데스크칼럼 월요논단 수요광장 경제전망대 춘추 칼럼 전문가칼럼 오늘의 창 노트북 기고 인천 인천 홈 정치 경제 사회 문화생활 지역 남부권 중부권 서부권 동부권 북부권 K스토리 K스토리 이슈&amp;스토리 영상·포토 리얼영상 포토 비주얼 통 큰 시리즈 경인 WIDE 경인 In-Depth 지면보기 구독신청 기사제보 검색 닫기 추천 키워드 전국체전 SSG 랜더스 도서관의 미래 경기도 쌀 수매 코로나 그늘 무형문화재 인천고등법원 경기도 버스 준공영제 제물포 르네상스 지역화폐 예산 1기 신도시 인천e음 캐시백 내가 추천 인천책 경인 WIDE Editor's PICK 장비 고치는데만 일주일… 장애인은 '강제 외출금지' "서서 못가" 아닌 "아예 못가" 인천 남동구민 극한 출근 [경기도 근대문화유산 탐방] 이천 수광리 오름가마 연예 방송·연예 '배틀트립'김숙, 제주도서 나홀로 웨딩 촬영…관광객 들러리로 즉석 섭외 입력 2017-04-23 01:14:33 가 가 공유하기 페이스북 카카오톡 네이버 밴드 트위터 url 복사 이상은 인턴기자기자 lse@kyeongin.com 이상은 인턴기자기자 기사모음 배틀트립 김숙 /KBS2 '배틀트립' 방송 캡처'배틀트립'김숙이 제주도에서 셀프 웨딩 사진을 찍었다.22일 방송된 KBS2 '배틀트립'에서는 제주도 여행을 떠난 김숙의 모습이 그려졌다.이날 김숙은 제주도에 도착하자마자 유명한 푸드트럭들을 찾아다니며 먹방을 펼쳤다. 이어 김숙은 자신의 로망이라는 솔로 웨딩 사진 촬영에 나섰다. 미리 챙겨온 웨딩드레스를 차려 입은 김숙은 해변과 아름다운 장소를 찾아다니며 사진을 찍었다.김숙은 지나가던 관광객들을 섭외해 "들러리처럼 사진 좀 같이 찍어달라"고 부탁해 웃음을 자아냈다.특히나 길을 가던 중 '셀프 웨딩'을 하는 다른 여행객과 우연히 마주쳐 눈길을 끌었다.김숙은 "(제주도의 매화공원에는)사진 찍기에 너무 예쁜 곳이 많다"며 "현장에 소품 같은 것들도 많다"고 촬영팁을 전했다./이상은 인턴기자 lse@kyeongin.com &lt;저작권자 ⓒ 경인일보 (www.kyeongin.com), 무단전재 및 수집, 재배포 금지&gt; 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘의 경인일보 TODAY PICK 신기술인가 신기루인가 지난 대선 당시 후보들이 직접 플랫폼을 사용하며 열풍을 일으킨 '메타버스(Metaverse)'가 신기루처럼 대중들의 눈앞에서 사라졌다. 관련 기술의 발전과 코로나19 팬데믹이 겹치면서, 가상세계를 통해 현실세계와 같은 사회·경제·문화 활동이 이뤄질 것이란 기대가 컸다. 그러나 선거가 끝나자마자 정치인들도 메타버스 플랫폼에서 자취를 감췄고, 대중들 역시 코로나 엔데믹 여파로 이에 대한 관심을 접어두고 있다. 그 사이 성착취 등 부작용은 늘고 있는데 정작 이를 예방할 수 있는 법적 장치 마련에는 정치권이 소홀한 모습이다. 대선·지선주자들, 너도나도 활용가상인물·공간… 이색유세 펼쳐 메타버스가 가장 주목받은 시기는 올해 가장 큰 정치이벤트였던 '20대 대통령선거'와 '8회 전국동시지방선거' 때다. 대선에 앞서 정치권에서는 지난해 8월부터 당내 경선이 순차적으로 시작됐고 이 과정에서 정당들은 메타버스를 활용해 유권자와 실시간 정책 소통, 공약 홍보, 선거운동 등을 했다. 메타버스를.. 김동연의 100일공직사회 잘 알기에… 관성 깨는 도정철학 공공의료 공백 인천의료원, 7개 과목 '휴진'… 시민 헛걸음, 전국서 버금간다 국회 국감 화두 경기도내 RPC, 전국 최악 적자… 국감선 '지역농협 지원' 목소리 공정위 표준약관 구멍 허술한 공정거래위원회 '셀프빨래방 표준약관' 두 번 우는 점주들 오늘의 사건사고 부부 싸움하다 불 지르려 휘발유 뿌린 남성 붙잡혀… 경찰 구속영장 신청 배재흥 기자 부천서 80대 아버지 흉기로 찌른 아들 붙잡혀… '가정불화 추정' 이상훈 기자 부천 호프집서도 '먹튀'에 직원 성희롱까지… 주민들 공분 이상훈 기자 경인 WIDE 구단 매각 언급에 축구팬 반발 돈줄 막힐땐 걷어차고, 비리 엮일땐 팽개치고… 시민축구단 현실 K4리그에서 활약하던 인천남동구민축구단은 올해 갑작스럽게 해체 결정을 내렸다. 해체 이유는 재정적인 어려움이었다. 2020년 K4리그 출범 때부터 리그에 참가했던 인천남동구민축구단은 남동구청의 보조금을 토대로 인천 지역 유일의 K4리그 팀으로 활약해 왔지만, 올해 남동구의 지원이 끊기자 선수들과 직원들의 임금을 주지 못하는 사태에까지 이르렀다.인천남동구민축구단 지원 조례의 유효기간을 연장하는 내용이 담긴 조례안이 상정됐지만, 네 번이나 부결되면서 남동구의회를 통과하지 못했다. 재정난 닥친 인천남동구민축구단선수 급여 지급 어렵.. 정책따라 흔들리는 지역화폐 지역화폐 동력 '인센티브'… 예산 쥔 정부만 바라본다 정부가 내년도 지역화폐 관련 예산을 전액 삭감하면서 경기지역화폐가 또 한 번 위기를 맞았다. 골목상권 보호 등을 통한 지역경제 활성화라는 공공성을 가졌지만, 예산 등 정책이 바뀔 때마다 지역화폐가 화두에 오르는 일이 반복되는 것이다.특히 국비 지원 중단은 인센티브(캐시백·할인율 등) 지급 등 지역화폐 경쟁력을 흔드는데, 지역화폐 시행 3년이 지나도록 이 같은 악순환이 계속되고 있다. 이 때문에 지역화폐의 지속가능성, 안정성을 확보하기 위한 대책 마련이 필요하다는 목소리가 나온다. 용인시민 A(33)씨는 지역화폐 '와이페이'.. 지역 시민단체 위기 각자도생의 시대, 휘청이는 시민사회 시민단체의 사회적 영향력·신뢰도는 예전 같지 않다. 특히 지역시민단체는 중앙보다 재정력이 약해 활동이 위축되고 시민들은 가입하지 않는 '악순환'이 반복된다.그럼에도 전문가와 시민단체 관계자들은 여전히 시민단체가 존재해야 한다고 말한다. 소외될 수 있는 지역주민의 목소리를 대변하고 권한이 강해진 지자체를 견제하기 위해 지역시민단체가 필요하다는 것이다.수원이주민센터, 회원 75% 줄어무관심 → 재정악화 → 활동위축이주민 인권증진·지원활동을 해온 시민단체 '수원이주민센터'의 회원은 4년 사이 400명에서 100명으로 줄었다. 회비,.. 신문사소개| 윤리강령| 고충처리| 기사제보| 구독신청| 개인정보 처리방침| 청소년 보호정책| 디지털뉴스 이용 규칙| 그룹웨어| 사이트맵 본사 :&amp;nbsp(16488) 경기도 수원시 팔달구 효원로 299 경인일보사빌딩  |  TEL :  031-231-5114   |   FAX : 031-232-1231/0339  |  구독신청 1588-3001 인천본사 :  (21556) 인천광역시 남동구 남동대로 773 3층   |   TEL : 032-861-3200   |   FAX : 032-861-3206/3209 인터넷신문등록번호 : 경기 아51587   |   등록일자 : 2017.07.17   |   ISSN 2635-9596   | 발행인/편집인 : 배상록 경인일보의 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. Copyright (c) by 경인일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>중국인 관광 의존도 낮추기…정부 밀고 제주도 당긴다 - 컨슈머타임스(Consumertimes) × 전체기사 파이낸셜컨슈머 전체 은행 증권 보험 카드 기타 Wealth 컨슈머 STOCK 타임스 산업 전체 건설부동산 IT 유통 식음료 자동차 기타 라이프 뉴스 전체 정치·사회 스포츠 연예·문화 기타 MZ컨슈머 오피니언 전체 김경한의 세상이야기 김재훈의 늦었슈 기자수첩 채삼석의 컨슈머톡 이길상의 맛있는 와인 글로벌 컨슈머 사람들 전체 컨슈머타임스 초대석 CEO 인사 부고 컨슈머리뷰 전체 컨슈머리뷰 컨슈머서재 전국 UPDATED. 2022-10-11 12:15 (화) 홈 로그인 회원가입 기사제보 기사검색 검색 뉴스 전체 정치·사회 스포츠 연예·문화 MZ컨슈머 기타 파이낸셜컨슈머 전체 은행 증권 보험 카드 기타 Wealth 컨슈머 STOCK 잇슈 산업 전체 건설부동산 IT 유통 식음료 자동차 라이프 기타 컨슈머리뷰 전체 컨슈머리뷰 컨슈머서재 오피니언 전체 김경한의 세상이야기 기자수첩 글로벌 컨슈머 사람들 전체 컨슈머타임스 초대석 CEO 인사 부고 전국 이전 다음 중국인 관광 의존도 낮추기…정부 밀고 제주도 당긴다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 산업 기타 중국인 관광 의존도 낮추기…정부 밀고 제주도 당긴다 우선미 기자 wihtsm@naver.com 기사출고 2017년 04월 23일 12시 24분 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [컨슈머타임스 우선미 기자] 중국의 '사드(고고도미사일방어체계·THADD) 보복'으로 타격을 입은 관광업계를 살리기 위해 정부와 지방자치단체가 대책 마련에 팔을 걷어붙이고 나섰다. 특히 대규모 할인 행사, 직항 노선 확대, 무비자 체류 기간 연장 등을 통해 현재 47%인 외국인 관광객 중국인 비중을 35%까지 낮춘다는 계획이다.중국 정부가 지난달 중순 이후 자국 여행사에 한국행 상품 판매금지 조처를 내린 뒤 한국 관광업계는 직격타를 맞았다.올해 3월 2일부터 4월 20일까지 제주도를 방문한 중국인 관광객은 9만4326명으로 집계됐다. 작년 동기 35만7550명보다 무려 73.6% 감소한 수치다.그러나 1월 1일부터 4월 20일까지 제주도에 들어온 전체 관광객(430만279명)은 내국인 관광객 증가에 힘입어 지난해 동기보다 2.3% 증가했다. 이에 제주도는 적극적으로 내국인 유치에 나서고 있다. '봄 향기 4월, 제주로 옵서예'라는 슬로건을 걸고 관광숙박업과 시설 관광지, 기념품업, 골프장, 관광식당 등 도내 861개 업체가 참여해 최대 65% 할인을 해주는 그랜드 세일이 현재 진행 중이다.중국 외 외국인 관광객 잡기도 한창이다. 지난달 28일부터 대만 타이거항공이 주 2회 제주에 취항하기 시작했고, 6월부터는 주 4회로 횟수를 늘린다. 제주와 일본 오사카를 오가는 직항편(티웨이항공)도 생겨 오는 6월부터 주 7회 운항할 예정이다. 이 밖에도 필리핀항공(주 2회) 등의 정기노선이 생겼다.기존 운행하던 홍콩 직항노선(홍콩 익스프레스, 캐세이 드래곤)도 주 2회에서 4회로 늘어나는 등 제주와 주요 관광시장을 잇는 항공편이 대폭 늘어났다.중앙정부도 가세해 동남아 관광객의 비자 요건을 완화한다. 제주도를 방문하기 위해 인천·김해공항에서 환승하는 동남아(인도네시아·베트남·필리핀) 단체관광객에게 무비자로 5일 동안 체류할 수 있도록 했다. 또 올해 하반기에 예정돼 있던 동남아 단체관광객에 대한 전자비자 발급을 오는 5월로 앞당긴다.싱가포르, 베트남, 일본, 인도 등에서 문화관광대전을 열어 한국 관광상품을 홍보하고 기업 포상(인센티브) 관광을 늘리기 위해 단체 관광 지원도 확대한다. 저작권자 © 컨슈머타임스(Consumertimes) 무단전재 및 재배포 금지 우선미 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 투데이포토 공정위, 음식물쓰레기 처리 짬짜미 사업자단체 제재 공정위, 음식물쓰레기 처리 짬짜미 사업자단체 제재 2022.10.11 [오늘 날씨] 차차 개면서 햇볕…바람 강해 체감온도 '뚝' [오늘 날씨] 차차 개면서 햇볕…바람 강해 체감온도 '뚝' 2022.10.11 르베이지, 롯데본점에 '살롱 드 르베이지' 오픈 르베이지, 롯데본점에 '살롱 드 르베이지' 오픈 2022.10.11 OK금융, 콜센터 직원 휴대전화 사용 제한 '차별 지속' OK금융, 콜센터 직원 휴대전화 사용 제한 '차별 지속' 2022.10.11 폭스바겐코리아, 사고수리 견적 서비스 '사은품 이벤트' 실시 폭스바겐코리아, 사고수리 견적 서비스 '사은품 이벤트' 실시 2022.10.11 에어버스, KAI와 파트너십 통해 최초 소형민수헬기 인도 에어버스, KAI와 파트너십 통해 최초 소형민수헬기 인도 2022.10.11 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 2022.10.11 엔카닷컴, 수입 하이브리드 시세 오름세…캠리 5% 이상 ↑ 엔카닷컴, 수입 하이브리드 시세 오름세…캠리 5% 이상 ↑ 2022.10.11 컴투스 '서머너즈 워: 크로니클' 신규 서버 '라피스' 오픈 컴투스 '서머너즈 워: 크로니클' 신규 서버 '라피스' 오픈 2022.10.11 LH, 행복주택 3570호 청약접수 실시 LH, 행복주택 3570호 청약접수 실시 2022.10.11 섹션별 인기기사 종합 파이낸셜 컨슈머 산업 1 [MZ컨슈머] 가을패션의 정석 '니트'가 돌아왔다 [MZ컨슈머] 가을패션의 정석 '니트'가 돌아왔다 2 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 3 인도네시아 축구장서 팬들 난동…인파 깔리며 최소 127명 사망 인도네시아 축구장서 팬들 난동…인파 깔리며 최소 127명 사망 4 [MZ 컨슈머] 가을 패션 제안 '프레피룩'은 어때? [MZ 컨슈머] 가을 패션 제안 '프레피룩'은 어때? 5 빈첸, 20일 신곡 '향기' 발매…"색다른 모습 보여줄 것" 빈첸, 20일 신곡 '향기' 발매…"색다른 모습 보여줄 것" 1 삼성페이 아성 무너뜨릴 '애플페이' 연내 상륙 삼성페이 아성 무너뜨릴 '애플페이' 연내 상륙 2 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 3 한일사료, 나홀로 주가 '쑥' 한일사료, 나홀로 주가 '쑥' 4 KB헬스케어, 솔티드와 바른 자세 코칭 서비스 공동 개발 업무협약 KB헬스케어, 솔티드와 바른 자세 코칭 서비스 공동 개발 업무협약 5 엔젯, 증권신고서 제출…11월 코스닥 상장 목표 엔젯, 증권신고서 제출…11월 코스닥 상장 목표 1 롯데칠성, '처음처럼 새로'로 소주시장 승부수 롯데칠성, '처음처럼 새로'로 소주시장 승부수 2 삼성물산, 흑석2구역 무혈입성 눈앞…다음 행보는 삼성물산, 흑석2구역 무혈입성 눈앞…다음 행보는 3 시멘트값 기습 인상…레미콘‧건설사 셧다운 후폭풍 시멘트값 기습 인상…레미콘‧건설사 셧다운 후폭풍 4 내연기관과 전기차 사이 '하이브리드'가 이어줄까 내연기관과 전기차 사이 '하이브리드'가 이어줄까 5 또 가격 오른 테슬라, 성능·서비스 개선은 '제자리' 또 가격 오른 테슬라, 성능·서비스 개선은 '제자리' 포토뉴스 공정위, 음식물쓰레기 처리 짬짜미 사업자단체 제재 [오늘 날씨] 차차 개면서 햇볕…바람 강해 체감온도 '뚝' 르베이지, 롯데본점에 '살롱 드 르베이지' 오픈 OK금융, 콜센터 직원 휴대전화 사용 제한 '차별 지속' 공정위, 음식물쓰레기 처리 짬짜미 사업자단체 제재 [오늘 날씨] 차차 개면서 햇볕…바람 강해 체감온도 '뚝' 르베이지, 롯데본점에 '살롱 드 르베이지' 오픈 OK금융, 콜센터 직원 휴대전화 사용 제한 '차별 지속' 사람들 1 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 2 소진공 박성효 이사장 "전통시장은 디지털 혁신 중"…'전국우수시장박람회' 개막식 참석 소진공 박성효 이사장 "전통시장은 디지털 혁신 중"…'전국우수시장박람회' 개막식 참석 3 산림복지진흥원 국립대전숲체원 "고령화 시대 맞춰 지역 노인 복지 활성화 앞장" 산림복지진흥원 국립대전숲체원 "고령화 시대 맞춰 지역 노인 복지 활성화 앞장" 4 인천경제청, '송도국제도시 바람의 연 축제' 송도달빛축제공원서 개최 인천경제청, '송도국제도시 바람의 연 축제' 송도달빛축제공원서 개최 5 전기차 열풍, 타이어 시장까지 영향 미칠까 전기차 열풍, 타이어 시장까지 영향 미칠까 6 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 7 7%까지 치솟은 기업대출 금리…중소기업 줄도산 위기 7%까지 치솟은 기업대출 금리…중소기업 줄도산 위기 8 "제주도 갈 바에 일본 가지"…소비자 발길 돌린 이유는? "제주도 갈 바에 일본 가지"…소비자 발길 돌린 이유는? CEO 김인규 하이트진로 대표 "또 다른 100년 위해 ESG 경영 나설 것" 김웅기 글로벌세아 회장, '세계 200대 미술품 컬렉터' 선정 구자은 회장 "LS MnM으로 새출발 니꼬동제련, 그룹 내 영향력 높일 것" 동국제강, 명동밥집 후원…장세욱 부회장 "지속적 관심과 지원 이어갈 것" 인사 [인사] 한국마사회 클리오라이프케어, 윤성훈 대표이사 신규선임 [인사] 월요신문 네슬레코리아, 토마스 카소 신임 대표 임명 부고 [부고] 장용준(이베스트투자증권 IB금융3팀 이사)씨 모친상 [부고] 심혁(NH투자증권 강남금융센터 WM2 센터장)씨 부친상 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제호 : 컨슈머타임스(Consumertimes) 등록번호 : 서울 아 00708 대표전화 : 02-723-6622 팩스 : 02-723-8383 청소년보호책임자 : 곽수지 등록일 : 2008년 11월 17일 발행일 : 2009년 3월 10일 발행·편집인 : 김경한 서울특별시 성동구 성수일로 77, 1405호(성수동1가, 서울숲삼성IT밸리) 컨슈머타임스(Consumertimes) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 컨슈머타임스(Consumertimes). All rights reserved. mail to admin@cstimes.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광지에 멸종위기종 Ⅱ급 '노랑무궁화' 심는다 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 관광지에 멸종위기종 Ⅱ급 '노랑무궁화' 심는다 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 관광지에 멸종위기종 Ⅱ급 '노랑무궁화' 심는다 송고시간2017-04-12 12:00 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 전준상 기자 기자 페이지 국립생물자원관-제주도, 무궁화속 '황근' 복원 본격 추진매년 4천그루 이상 심어 올레길·생태공원 조성 (세종=연합뉴스) 전준상 기자 = 환경부 국립생물자원관은 제주도와 함께 멸종위기 야생생물 II급인 '황근'을 대량으로 키워 올레길을 비롯한 제주도 관광지에 심기로 했다. 황근(아욱과) 황근은 우리나라의 무궁화속 식물 중 유일한 자생종 낙엽 관목이다. 6∼8월 옅은 노란색의 꽃을 피워 일명 '노랑무궁화'로 불린다. 황근(아욱과) 제주도와 전남 일부 섬 지역의 해변에서 자란다. 해안도로 건설 탓에 자생지 파괴에 직면해있다. 광고 제주도 일부 지역에서 황근 복원사업을 진행한 바 있으나, 아직 1천500그루 미만에 불과해 체계적인 보전과 관리가 필요한 실정이다. 황근이 식재될 송악산도립공원 국립생물자원관은 제주도 자생지에서 직접 채종한 종자를 이용해 2014년부터 3년 동안 증식한 4천여그루의 황근을 제주도에 기증할 예정이다. 이를 위해 국립생물자원관과 제주도는 제주생물자원협의체 등 제주도 환경단체와 함께 15일 제주도 송악산 도립공원에서 '황근 대량증식과 지속적 관리를 위한 업무협약'을 체결한다. 송악산 도립공원에 2천그루, 제주도 자연생태공원에 1천500그루, 한림읍 올레길 일대에 500그루가 각각 심어질 예정이다. 국립생물자원관과 제주도는 이번 식재를 시작으로 향후 5년 간 매년 4천그루 이상의 황근을 보급할 계획이다. 제주생물자원협의체 등 제주도 환경단체는 제주도로부터 지원받아 식재된 황근의 상태를 계속 관찰한다. 국립생물자원관과 제주도는 이번 증식 사업을 계기로 제주도 생물종의 다양성을 보전하고 멸종위기 야생생물인 황근 개체 수도 늘어날 것으로 기대하고 있다. chunjs@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/04/12 12:00 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도-교육청 관광분야 MOU 체결 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도-교육청 관광분야 MOU 체결 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도-교육청 관광분야 MOU 체결 지화 승인 2017.04.18 17:33 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주관광공사(사장 최갑열)는 향후 제주관광을 이끌어나갈 미래 주역들이, 제주 관광을 이해하고 다양한 관광학습 체험을 통해, 제주 관광 인재를 육성하는 2017년 ‘JTogether Dream School’ 프로그램을 운영한다고 밝혔다. 지난 2015년부터 제주시교육지원청, 서귀포시교육지원청과 공동으로 사회공헌의 일환으로, 취약계층 학생 대상 미래관광 인재 육성을 위해 추진했던 제주관광공사의 ‘JTogether Dream School’ 프로그램은, 2년 간 139명의 도내 초등학생에게 서울을 비롯한 국내의 주요 관광지를 시찰하고 한국의 관광산업을 이해하는 관광 학습의 기회를 제공해 왔다. 이는 제주의 관광산업이 연관산업을 포함하여 지역내 총생산의 80% 이상을 차지하는 만큼, 지역의 청소년들에게 관광산업에 대한 이해를 높이고, 미래 제주관광의 주역을 육성하자는 취지에서 기획되었다. 올해는 특히 관광과 교육의 동반성장을 위해, 18일(화) 오전 11시 제주특별자치도교육청 회의실에서, 제주관광공사와 제주특별자치도교육청 간 업무협약을 체결하였으며, 미래 관광인재 양성을 위한 다양한 분야로의 상호 협력을 강화키로 하였다. 한편 제주관광공사는 첫 사업으로 올해 상반기와 하반기 총 2회에 걸쳐 제주시 및 서귀포시지역 취약계층 학생 50명을 대상으로, 국내 유수의 관광기업과 협업을 통해, 수도권 지역을 중심으로 다양한 관광학습의 기회를 제공할 계획이다. 제주관광공사 관계자는 “제주 청소년들에게 관광학습의 기회를 통해, 미래 직업으로서 관광에 대한 호기심을 자극하여, 보다 큰 비전을 품을 수 있도록 하는 데 그 의미가 있다”고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>경기도-제주도, 중국사드보복 관광위기 “똘똘 뭉쳐 극복하자 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 경기도-제주도, 중국사드보복 관광위기 “똘똘 뭉쳐 극복하자" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 경기도-제주도, 중국사드보복 관광위기 “똘똘 뭉쳐 극복하자" 기자정보, 기사등록일 입력 2017-04-16 07:56 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 남경필 경기지사와 원희룡 제주지사가 지난해 상생협약을 맺고 기념촬영을 하고 있다.   [사진=아주경제DB] 아주경제 김문기 기자 =경기도 기우회가 중국의 방한금지령으로 피해를 본 제주도와 국내 관광활성화를 위한 상생교류협력에 나선다. 16일 경기도에 따르면 경기도 기우회는 다음 달 26~27일 남경필 도지사와 기우회 회원 70여명이 참석한 가운데 제주도에서 월례회를 연다. 기우회 행사가 경기도 외 지역에서 열리는 것은 이번이 처음이다. 기우회는 경기도에 소재한 주요 기관장과 학계, 언론계, 경제계, 종교계 인사 등 200여명으로 구성된 단체다. 모두 12개조가 있으며 조별로 매월 1회씩 월례모임을 갖고 정책대안 제시, 사회봉사 활동 등을 하고 있다. 이번 제주도 방문 동안 올레길, 제주해군기지, 동문시장 등을 둘러볼 예정이다. 특히 원희룡 제주도지사가 참석해 제주도정에 대해 소개하는 시간을 갖고, 양 지역 관광활성화 방안에 대해서도 논의한다. 관련기사경기도, "인사청문회 통과 공공기관장 조기퇴임 재발방지에 노력" 기우회의 제주도행은 남경필 지사의 제안에 따른 것이다. 남 지사는 지난달 기우회 회원과 가진 오찬 자리에서 “경기도와 상생협력 관계인 제주도가 중국의 방한금지령으로 어려움을 겪고 있다”며 “중국 조치에 대응하기 위해서 우리도 똘똘 뭉쳐야 한다"고 말했다. 이어"국내 관광 활성화와 교류협력 활성화 차원에서 기우회 월례회를 제주도에서 열었으면 한다”고 제안했다. 또 한 방송 인터뷰를 통해 그는 “제주도가 관광으로 먹고사는 지역인데 방한금지령으로 피해가 크다”면서 “당분간은 해외여행도 자제하고 경기도에서 제주도를 가고, 제주도에서도 경기도를 방문하는 국내 관광 살리기 캠페인을 벌일 것”이라고 밝힌 바 있다. 이에 따라 제주도에서도 중국 관광객 급감으로 피해를 본 경기 북부지역을 대상으로 하반기 중 답방을 추진할 계획으로 알려졌다. 경기도와 제주도는 2015년 8월 상생협력을 맺고 △일자리창출과 신성장 산업 △농산물 등 유통판매 △도민 교육 및 공무원 교류 △관광 △연구 등 모두 5개 분야에 32개 사업을 추진 중이다. #관광 #교류 #제주 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 6세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 7'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>내국인 관광객들로 붐비는 제주도 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 사회 사회최신 사건/사고 법원/검찰 의료/보건 복지 교육 노동 환경 날씨 내국인 관광객들로 붐비는 제주도 등록 2017.04.09 15:01:55 작게 크게 【서귀포=뉴시스】임태훈 기자 = 중국의 한국 단체관광금지조치 이후로 제주도에는 중국인 관광객이 줄었지만 내국인 관광객이 늘고 있다. 8일 오전 제주 서귀포시 표선면 제주 유채꽃 행사장에서 봄 나들이객이 만개한 유채꽃 사이를 지나며 즐거운 한때를 보내고 있다. 2017.04.09. taehoonlim@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4[창사기획-인구절벽]①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 6서울 잠원동서 총기 사건...병원서 수술 중 7'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>한라산 인접 오라관광단지 개발 놓고 제주도-의회 공방 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 한라산 인접 오라관광단지 개발 놓고 제주도-의회 공방 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 한라산 인접 오라관광단지 개발 놓고 제주도-의회 공방 송고시간2017-04-10 18:22 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 "마라도 12배 면적…청정·공존의 제주 미래비전 부합하는지" (제주=연합뉴스) 변지철 기자 = 난개발과 특혜 논란이 일고 있는 제주 최대 규모의 개발사업인 오라관광단지 개발사업을 놓고 원희룡 제주지사와 강경식 제주도의회 의원 간 공방이 벌어졌다. 제주도의회 임시회 (제주=연합뉴스) 10일 원희룡 제주지사를 상대로 한 제350회 임시회 제2차 본회의 도정질문이 진행되고 있다. 2017.4.10 [제주도의회 제공=연합뉴스] 강 의원은 10일 원희룡 제주지사를 상대로 한 제350회 임시회 제2차 본회의 도정질문에서 "6조원이 넘는 사업비를 들여 마라도 면적의 12배 면적인 한라산 천연보호구역 바로 밑 완충지대에 제주도 개발역사상 가장 큰 규모의 개발사업을 벌이는 것이 청정과 공존이라는 제주 미래비전에 부합하다고 볼 수 있는지, 논리상 앞뒤가 맞지 않는다"고 주장했다. 그는 "쓰레기 대란과 오폐수·교통 문제 등 각종 문제가 심각한 상황에서 6만명 가량이 거주할 수 있는 대규모 단지를 개발하면 제주의 환경수용능력 측면에서 감당할 수 있겠느냐"며 원 지사에게 물었다. 광고 이와 함께 '보전지구 비율이 높아 환경적 가치가 높은 지역에 대규모 개발사업은 바람직하지 않다'는 오라관광단지 개발사업에 대한 한국환경정책평가연구원(KEI)의 검토 보고서를 제시했다. 원 지사는 "해당 부지는 과거 세계섬문화 축제장으로 쓰였던 곳으로, 20여년간 개발이 추진됐을 뿐만 아니라 30％가량 자연이 이미 개발, 훼손된 곳"이라며 "국내 자본의 투자를 거쳐 여러 차례 투자자가 바뀐 끝에 최종적으로 외국자본이 투자하는 상황에서 앞뒤 과정을 생략한 채 제주도가 외국자본에 땅을 팔았다는 식의 이야기는 사실에 전혀 맞지 않는다"고 맞섰다. 답변하는 원희룡 제주지사 (제주=연합뉴스) 원희룡 제주지사가 10일 제350회 임시회 제2차 본회의 도정질문에서 강경식 의원의 질문에 답변하고 있다. 2017.4.10 [제주도의회 제공=연합뉴스] 또한 "KEI가 낸 13개의 검토의견은 모두 위원회에서 참고해 의사결정에 반영토록 했고, 이 가운데 생활용수 공급 등 10개를 반영했다"며 "폐기물 하수 등을 100％ 자체 처리를 하도록 도에서 보완조치 시켰다. 앞으로도 모든 부작용을 최소화할 수 있게 동원할 수 있는 행정력을 다 동원할 것"이라고 강조했다. 환경 문제에 이어 투자자본에 대한 실체 검증 문제도 불거졌다. 강 의원은 대규모 개발사업인 만큼 철저하게 오라관광단지 개발사업자인 JCC의 자본능력을 검증해야 한다고 지적했다. 그는 "오라관광단지 환경영향평가서 협의내용 동의안에 대한 처리는 제주도의회 차원의 최종적인 동의단계"라며 "너무나 엄청난 개발사업이기 때문에 자본검증 문제가 작년부터 불거진 만큼 제주도는 위원회를 꾸려서 자본 적격성 여부를 확인하고, 자본검증에 대한 모든 서류를 포함해 명확한 사업계획을 도의회에 제출해 동의를 받아야 한다"고 말했다. 원 지사는 "자본검증 문제는 환경의 영향과 별도로 굉장히 중요한 문제로 하자와 문제가 있다면 언제든 행정적 권한을 발동할 수 있다"면서도 "절차에 대한 규정 자체가 환경영향·경관·도시계획영향에 대한 심의위원회를 거쳐 도의회 동의를 받은 뒤 자본조달 등 상세한 사업계획서를 받도록 하고 있다. 모든 과정을 투명하게 공개하겠다"고 설명했다. 원 지사는 "과거에는 첫 단계에서부터 자본조달 등 상세한 계획을 내도록 했으나 취임 이전에 절차가 고쳐졌다"며 오라관광단지 사례를 교훈 삼아 현행 절차를 다시 바로잡을 필요성도 제기했다. 질문하는 강경식 의원 (제주=연합뉴스) 강경식 제주도의회 의원이 10일 제350회 임시회 제2차 본회의 도정질문에서 원희룡 제주지사에게 질문하고 있다. 2017.4.10 [제주도의회 제공=연합뉴스] 강 의원은 "자본검증이 되지 않고 환경과 지역상권에 막대한 영향을 줄 수 있는 사안인 만큼 제주도가 동의안을 상정할 때 모든 자료를 제출해야 도의회가 제대로 된 평가를 할 수 있다. 그 전에는 심사를 보류해야 한다"고 동료의원들에 제안했다. 앞서 제주도의회 환경도시위원회는 지난 5일 오라관광단지 환경영향평가서 협의내용 동의안을 제350회 임시회 회기 중에 상정하지 않기로 했다. 환도위는 "오라관광단지 사업구역의 경관, 지형적인 부분을 확인한 결과 다양한 이해관계가 도민사회에 얽혀있고, 대규모 사업인 만큼 면밀한 검토가 필요하다"며 상정보류를 결정했다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/04/10 18:22 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 단체관광객 ‘환승 무비자’ 도입-국민일보 시사 시사 &gt; 전체기사 제주도, 동남아 단체관광객 ‘환승 무비자’ 도입 입력 : 2017-04-18 17:31 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주를 최종 목적지로 하는 동남아 단체관광객을 대상으로 한 ‘환승 무비자 120시간(5일) 제도’가 도입된다. 제주도는 9월부터 인천공항과 김해공항을 거쳐 제주를 방문하는 동남아 단체관광객들은 비자를 발급받지 않고도 다른 지방에서 5일 동안 체류하다 제주를 거쳐 출국할 수 있게 된다고 18일 밝혔다. 정부는 중국 정부의 ‘한국관광 금지’조치에 따른 위기상황을 타개하기 위해 동남아 단체관광객에 대한 전자 비자발급과 제주도 방문을 위한 환승 무비자 입국을 검토해 왔다. 현재 문화체육관광부와 법무부는 대상국가 선정, 입국에서 출국까지의 관리를 전담할 여행사 지정 등 준비에 착수한 것으로 알려졌다. 제주도는 제주와 동남아 국가를 잇는 직항노선이 부족한 현실을 감안해 6시간 비행거리 내 주요 국가 도시들을 연결하는 직항편 확대에 총력을 기울인다는 방침이다. 또 공항 이착륙 시간을 배정받을 수 있도록 중앙정부와 협의에 나서는 한편 관련 여행사·항공사·관광협회·공항본부 등과의 협업체계도 구축해 나갈 계획이다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야”</t>
+  </si>
+  <si>
+    <t>"유커 사라진 제주도…전체 관광객은 오히려 늘었다"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 유커 사라진 제주도…전체 관광객은 오히려 늘었다 2017.04.17 07:35 [헤럴드경제=이슈섹션]중국의 사드 배치 보복 여파로 제주도를 찾는 중국인 관광객이 줄어들었지만 오히려 전체 관광객 수는 증가한 것으로 나타났다.올해 들어 제주도를 찾은 관광객은 400만 868명이다. 이는 지난해 같은기간 389만 9,115명보다 2.6% 증가한 수치다.지난달 15일 중국이 한국의 사드배치 항의 표시로 한국 관광을 금지했지만 오히려 총 관광객 수가 늘어난 것.중국인 관광객은 지난해에 비해 28.3% 급감했지만 내국인 관광객이 크게 늘었고 싱가포르와 말레이시아 등 동남아시아 관광객들이 늘었기 때문으로 분석된다.제주도 내 여행업계 관계자에 따르면 중국인이 떠난 자리에 내국인이 들어오면서 피해는 크지 않은 모습이다.천편일률적인 저가관광 일색이었던 제주 관광이 관광상품 다변화와 가격 경쟁력 강화 등 자정노력을 통해 피해가 줄어들 것으로 기대된다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 동남아 유명 배우 캐서린 리 제주 관광 홍보대사로 위촉 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 동남아 유명 배우 캐서린 리 제주 관광 홍보대사로 위촉 등록 2017.04.07 17:37:06 작게 크게 【제주=뉴시스】장재혁 기자 =  제주도와 제주관광공사(사장 최갑열)는 7일 오후 동남아시아 및 중화권 지역을 주무대로 활동하는 배우이자 모델인 ‘캐서린 리(Cathryn Lee, Cathryn Li)’씨를 제주관광공사 홍보대사로 위촉했다. 2017.04.07.(사진=제주관광공사 제공) jjhyej@newsis.com【제주=뉴시스】조수진 기자 = 동남아시아 유명 배우 캐서린 리가 제주관광공사 홍보대사로 7일 위촉됐다. 제주특별자치도와 제주관광공사는 최근 중국 정부의 한국 관광 금지 조치에 대응하기 위해 해외 유명 스타를 위촉해 마케팅을 추진하는 방안의 하나로 동남아시아 및 중화권 지역 배우이자 모델인 캐서린 리를 이날 위촉했다고 밝혔다. 캐서린 리는 1년 간 말레이시아, 싱가포르, 홍콩 등 주요 활동 지역에서 SNS를 통한 제주관광 홍보와 더불어 동남아 현지에서 온·오프라인 프로모션 지원 활동을 펼칠 계획이다. 캐서린 리는 7일부터 9일까지 제주에 머물면서 의료관광, 웨딩촬영 등 관광 상품을 체험한다. 공사는 캐서린 리의 체험 동영상을 제작해 추후 홍보 콘텐츠로 활용할 계획이다. 【제주=뉴시스】조수진 기자 = 7일 오후 제주시 연동에 위치한 제주웰컴센터에서 동남아 유명 배우 캐서린 리가 제주관광 홍보대사 위촉패를 들고 제주관광공사 직원들과 기념 촬영을 하고 있다. 2017.04.07. susie@newsis.com 캐서린 리는 “세계 7대 자연경관으로 꼽힐 만큼 아름다운 제주의 홍보대사로 임명돼 영광”이라며 “제주에서의 경험과 추억들을 가족, 친구, 전 세계 팬들과 공유할 계획”이라고 밝혔다. 한편 캐서린 리는 만 29세의 말레이시아 배우로, 지난 2012년 중국 유명 배우 판빙빙(范冰冰)의 매니저에게 발탁돼 동남아 및 중국을 중심으로 광고 모델과 영화배우로 활발하게 활동하며, SNS상에서 팔로워 200만 명 이상을 보유하고 있다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도의회, 오라관광단지 환경영향평가 동의안 상정보류 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회, 오라관광단지 환경영향평가 동의안 상정보류 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회, 오라관광단지 환경영향평가 동의안 상정보류 송고시간2017-04-05 17:28 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 환경도시위원회 "5월중 토론회 개최한 뒤 심사" (제주=연합뉴스) 변지철 기자 = 제주도의회 환경도시위원회(위원장 하민철)는 5일 난개발과 특혜 논란이 일고 있는 오라관광단지 환경영향평가서 협의내용 동의안을 제350회 임시회 회기 중에 상정하지 않기로 했다. 제주오라관광단지 현장 방문한 의원들 (제주=연합뉴스) 제주도의회 환경도시위원회 의원들이 5일 오전 제주시 오라관광단지 조성사업에 대한 환경영향평가서 동의안 처리에 앞서 사업부지를 방문해 문제점을 살피고 있다. [제주도의회 제공=연합뉴스] 환도위는 이날 오전 오라관광단지 사업 현장을 방문하고 관계자와 지역주민과 대화를 가진 뒤 심도 있는 검토가 필요하다고 판단, 상정보류를 결정했다. 의원들은 "오라관광단지 사업구역의 경관, 지형적인 부분을 확인한 결과 다양한 이해관계가 도민사회에 얽혀있고, 대규모 사업인 만큼 면밀한 검토가 필요하다"며 중산간 개발로 인해 해안 용천수가 고갈될 위험, 사업부지가 경사지형으로 집중 호우시 하류 지역에 있는 도심에 피해가 우려되는 만큼 이에 대한 대책을 마련하도록 사업자 측에 요구했다. 광고 또한 "사업비가 6조원을 넘어서는데 자본의 실체가 명확히 밝혀지지 않았다"며 사업자가 제시하고 있는 하수처리나 중수 사용 문제, 주변 환경에 미치는 영향에 대한 깊이 있는 검토가 필요하다고 주문했다. 하민철 환경도시위원회 위원장은 "도민사회 찬반이 극명하게 엇갈리는 부분이 어떤 부분인지 좀 더 명확하게 파악하기 위해 5월 중 전문가 집단, 지역주민 등을 한 자리에 모아 토론회를 개최한 뒤 심사하겠다"고 밝혔다. bjc@yna.co.kr 관련기사 제주 오라관광단지 개발 놓고 지역사회 찬반 분열(종합) 제주시 주민자치위원회 "오라관광단지에 힘 실어달라" 제주 오라관광단지 개발 성사될까…도의회, 현장 점검 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/04/05 17:28 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>경기도 기우회-제주도, 관광활성화 상생교류협력 나서(정치/사회)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 대통령실/중앙행정국회위/정당지자체/정당사회/단체 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소경기도 기우회-제주도, 관광활성화 상생교류협력 나서2017-04-17 13:50, 윤미선 기자 [XML:KR:1903:지자체/정당] #경기도 #제주도 #상생교류 #방한금지령 #기우회 남경필지사, 내달 26일 경기도 ‘기우회’ 사드피해 제주 방문경기도청. (사진 = 경기도) (경기=NSP통신) 윤미선 기자 = 경기도 기우회가 중국의 방한금지령으로 피해를 입고 있는 제주도와 국내 관광활성화를 위한 상생교류협력에 나선다. 도에 따르면 경기도 기우회는 다음달 26일과 27일 이틀 간 남경필 경기도지사와 기우회 회원 70여 명이 참석한 가운데 제주도에서 월례회를 연다. 기우회 행사가 경기도외 지역에서 열린 것은 이번이 처음으로 양 지역 상생협력의 모범사례가 될 전망이다. 경기도 기우회는 이번 제주도 방문 동안 올레길, 제주해군기지, 동문시장 등을 방문해 제주 관광활성화를 위해 노력할 예정이다. 특히 원희룡 제주도지사가 기우회 월례회에 참석해 제주도정에 대해 소개하는 시간을 갖고 양 지역 관광활성화 방안에 대해서도 논의할 계획이다. 기우회의 제주도 행은 남경필 지사의 제안에 따른 것으로 알려졌다. 남경필 지사는 지난 3월 기우회 회원과 가진 오찬 자리에서 “경기도와 상생협력 관계인 제주도가 중국의 방한금지령으로 어려움을 겪고 있다”면서 “중국 조치에 대응하기 위해서 우리도 똘똘 뭉쳐야 한다. 국내 관광 활성화와 교류협력 활성화 차원에서 기우회 월례회를 제주도에서 열었으면 한다”고 제안했다. 남 지사는 또 한 방송 인터뷰를 통해 “제주도가 관광으로 먹고 사는 지역인데 방한금지령으로 피해가 크다”며 “당분간은 해외여행도 자제하고 경기도부터 제주도를 가고 제주도에서도 경기도를 방문하는 국내 관광 살리기 캠페인을 벌일 생각이다”라고 밝힌 바 있다. 이에 따라 제주도에서도 중국 관광객 급감으로 피해를 입은 경기 북부지역을 대상으로 올 하반기 중 답방을 추진할 계획으로 알려졌다. 앞서 경기도와 제주도는 2015년 8월 상생협력을 맺고 ▲일자리창출과 신성장 산업 ▲농산물 등 유통판매 ▲도민 교육 및 공무원 교류 ▲관광 ▲연구 등 모두 5개 분야에 32개 사업을 추진 중이다. 한편 기우회는 경기도에 소재한 주요 기관장과 학계, 언론계, 경제계, 종교계 인사 등 200여 명으로 구성된 단체다. 총 12개조가 있으며 조별로 매월 1회씩 월례모임을 개최하며 정책대안 제시, 사회봉사 활동 등을 하고 있다. NSP통신/NSP TV 윤미선 기자, yms020508@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 AdvertizementNSP통신 200여 국가에 뉴스 공급NSP통신 증권사 HTS/MTS 뉴스 공급NSP통신 전국지사모집녹제거/부식방지/윤활 방청윤활제 RX3-360오늘의 주요뉴스 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ 한은, "외식물가 오름세 지속 확대"...소비자물가, 상당기간 5~6%대 높은 오름세 전망 저축은행·보험사 부동산 PF 대출 5년 새 24조6천억원 증가 주요 금융회사, 기재부·금융위·금감원 출신 114명 대거 포진   네오위즈, 넷플릭스와 '고양이와 스프' 퍼블리싱 계약 체결 카카오뱅크 임원진, 자사주 5만4685주 매입…"책임경영·주주가치제고" 전주시·행안부, 21~22일 '지구사랑 두바퀴 대축제' 개최 대우건설, 우즈베키스탄 민관합동사업 공동추친 케이뱅크, 아파트 신규 구입자금 대출 선봬…'최저 연 3.18%' 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 케이뱅크, 아파트 신규 구입자금 대출 선봬…‘최저 연 3.18%’ 토스플레이스 오프라인 결제단말기 시범 서비스 시작 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 현대차·테이트 미술관, 파트너십 일곱 번째 전시 신한은행, 뉴진스 손 잡고 ‘뉴 쏠’ 공개 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>2017 제주도관광협회장배 아마추어 골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2017 제주도관광협회장배 아마추어 골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2017 제주도관광협회장배 아마추어 골프대회 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.04.19 15:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도와 제주특별자치도관광협회(회장 김영진)는 고부가가치 레저․스포츠 상품 개발을 통한 관광객 유치로 도내 골프장 경쟁력 강화를 위해 6월21일부터 22일까지 '2017 상반기 제주관공협회장배 아마추어 골프대회를 개최한다.'이번 '상반기 협회장배 아마추어 골프대회'는 상품 출시와 동시에 일부지역을 중심으로 완판되는 등 도외지역 골퍼들의 높은 관심도를 보였다.올해로 7년째를 맞는 협회장배 아마추어 골프대회는 고부가가치 골프 관광객 유치 활성화를 위해 관광협회 골프장업 분과위(위원장 박성호)의 지원과 육지부 대도시에서 관광객 유치 활동을 전개하고 있는 3개 국내 홍보사무소 네트워크를 활용해 매년 상․하반기 2회 개최되고 있다.올해 상반기 대회는 오라CC, 에버리스CC 2개 골프장에서 샷건방식으로 동시 진행되며 국내외 480여명의 아마추어 골퍼유치를 목표로 1박 2일 상품으로 출시되었다. 특히 올해 대회부터는 도내 여행업계와 일본 현지 여행업계의 공동상품 개발을 통해 일본인 골퍼참가자 유치를 병행해 침체된 일본 관광시장 회복을 위한 노력을 함께 하고 있다.관광협회 회원사들도 이에 호응해 십시일반 호텔숙박권, 렌터카이용권, 식사 이용권, 토산품, 골프이용권 등 다양하고 푸짐한 경품들을 제공한다.한편, 제주관광 오픈마켓인 탐나오(www.tamnao.com)에서 개별참가자를 위한 상품판매도 함께 진행하고 있다. 개별참가자를 위한 상품판매는 참가신청 마감일인 5월31일까지 진행된다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>중국인 관광객 없지만 제주도 관광객 지난해보다 증가했다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 중국인 관광객 없지만 제주도 관광객 지난해보다 증가했다 지난달 15일 한국의 사드 배치 보복으로 중국인 관광객의 발길이 끊겼지만 제주도는 오히려 총 관광객 수가 증가한 것으로 나타났다. 권순걸 기자 2017-04-16 18:31:38 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 연합뉴스[인사이트] 권순걸 기자 = 제주도 관광업계가 목을 매던 중국인 관광객이 줄어들었지만 오히려 전체 관광객 수는 증가한 것으로 나타났다.지난 14일 제주도 등에 따르면 올해 들어 이날까지 제주도를 찾은 관광객은 400만 868명이다. 이는 지난해 같은기간 389만 9,115명보다 2.6% 증가한 수치다. 지난달 15일 중국이 한국의 사드배치 항의 표시로 한국 관광을 금지했지만 오히려 총 관광객 수가 늘어난 것이다. 중국인 관광객은 지난해에 비해 28.3% 급감했지만 내국인 관광객이 크게 늘었고 싱가포르와 말레이시아 등 동남아시아 관광객들이 늘었기 때문으로 분석된다.제주도 내 여행업계 관계자에 따르면 중국인이 떠난 자리에 내국인이 들어오면서 피해는 크지 않은 모습이다. 중국인 관광객 감소 이후에도 여행업소 3곳만 '사드 영향으로 휴업한다'고 밝혔다.또 천편일률적인 저가관광 일색이었던 제주 관광이 관광상품 다변화와 가격 경쟁력 강화 등 자정노력을 통해 피해가 줄어들 것으로 기대된다. 한편 중국 여행사들이 16일 북한의 미사일 실험 발사 이후 북한 관광을 전면 중단하면서 한반도에서 중국인 관광객이 사라졌다. 권순걸 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>러시아 대표 여행가이드북에 제주도 관광 첫 소개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 러시아 대표 여행가이드북에 제주도 관광 첫 소개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 러시아 대표 여행가이드북에 제주도 관광 첫 소개 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.04.10 18:09 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 러시아 대표 해외여행 가이드북(오렌지북 시리즈)에 제주도가 처음 소개될 예정이어서 관심을 끌고 있다.제주특별자치도는 러시아 1위 해외여행 가이드북 출판사 집필진이 제주를 방문해 취재를 진행하고 있으며, 이와 별도로 러시아 주요도시 여행사 및 언론인 팸투어단이 제주를 방문하고 있다고 10일 밝혔다. 러시아 집필진 일행은 9일부터 13일까지 제주 전역을 돌며 유네스코 세계 문화 유산 과 아름다운 자연을 러시아에 소개하기 위한 취재를 진행하고 있다.이들은 한국편 가이드북 제작을 위해 제주도를 비롯해 서울, 평창 동계 올림픽 개최지역 등을 방문할 예정이다. 한편 극동러시아 주요도시(블라디보스톡, 유즈노사할린스크) 여행사와 언론인 팸투어단 일행 13명은 9일부터 12일까지 제주 테마 관광 상품의 구성과 러시아 신규 제주 관광 수요 창출을 위해 제주 주요 관광지를 방문하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광포럼-JDC 공동세미나 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도의회 문화관광포럼-JDC 공동세미나 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도의회 문화관광포럼-JDC 공동세미나 개최 기자명 고병수 기자 입력 2017.04.17 18:01 수정 2017.04.17 18:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주국제자유도시개발센터(이하 JDC)는 제주도의회 문화관광포럼과 공동으로 '21세기를 선도하는 문화콘텐츠, 제주신화의 재발견'이라는 주제로 세미나를 19일 도의회 대회의실에서 개최한다.이번 세미나는 제주 신화의 가치를 공유하고 문화콘텐츠로 발전 방안을 모색하는 자리로 마련된다.웹툰 '신과함께'의 주호민 작가와 김정숙 신화연구가가 제주 신화의 현황과 문화콘텐츠 개발 방안 및 성공 사례에 대한 주제 발표로 제주 신화의 의미와 가치를 재조명한다. 도의회 이선화 의원을 좌장으로 원광연 前카이스트 문화기술대학원 초대원장, 현승환 前제주문화예술재단 이사장, 길형준 ㈜두잉 대표, 이성호 JDC 관광산업처장이 제주 신화의 다양한 활용방안에 대한 토론이 펼쳐진다. JDC 박현철 투자개발본부장은 "이번 세미나를 통해 제주 신화의 문화적 가치와 중요성을 인식하고 관련 분야에서 문화콘텐츠 개발 노력이 가속화 되는 전환의 계기가 되기를 기대해 본다"며"JDC는 앞으로도 제주의 문화 가치 증진을 위해 지속 노력하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도교육청-제주관광공사, 특성화고 취업지원 협약체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도교육청-제주관광공사, 특성화고 취업지원 협약체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도교육청-제주관광공사, 특성화고 취업지원 협약체결 기자명 고병수 기자 입력 2017.04.14 15:48 수정 2017.04.14 15:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도교육청은 18일 오전 11시 도교육청 제 1회의실에서 제주관광공사와 관광교육 활성화 및 특성화고 취업지원을 위한 업무 협약식을 체결한다고 14일 밝혔다.협약을 통해 제주관광공사와 도교육청은 관광교육을 위한 지원 및 정보공유, 특성화고 졸업예정자 채용 기회 확대, 실무 중심의 관광인력 양성 프로그램 개발 및 운영, 교육복지대상 학생에 대한 프로그램 지원, 협약기관 간 공동사업 발굴 및 시행을 제공할 예정이다.또한 제주관광 진흥과 도내 학생들의 관광교육 활성화 및 특성화고 학생의 취업을 원활하게 지원하기 위해 상호 협력할 예정이다. 협약식에는 제주관광공사는 최갑열 사장과 오창현 관광산업처장, 문준석 서비스인프라팀장이 참석한다. 관계자는 "이번 협약을 통해 관광교육 활성화 및 특성화고 학생들이 관광분야의 우수 인재로 육성돼 해당분야의 전문가로 성장하도록 다양한 프로그램을 운영할 예정"이라며 "도내 관광교육 활성화와 특성화고의 관광 관련 취업지원을 기대하고 있다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>유커 빈자리 동남아 관광객으로…제주도, 동남아 하늘길 확대 : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 유커 빈자리 동남아 관광객으로…제주도, 동남아 하늘길 확대 등록 :2017-04-05 16:22수정 :2017-04-05 21:52 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 지난해 11월 이후 중단됐던 제주-대만 직항노선 재개 제주-필리핀 직항 전세기 이어 말레이시아도 취항할 듯중국의 사드 보복으로 제주를 찾는 중국인 관광객이 큰 폭으로 떨어진 가운데 중국인 관광객의 빈자리를 동남아 관광객들이 메우고 있다. 제주도와 제주관광공사는 지난해 11월부터 대만 푸싱항공이 파산하면서 운항이 중단됐던 제주-대만 간 직항노선이 4개월만인 지난달 28일부터 재개되는 등 동남아 항공노선을 늘리고 있다고 5일 밝혔다. 대만의 타이거항공은 제주-타이베이 직항노선을 오는 6월7일까지 주 2회 운항하고 그 뒤 10월28일까지는 주 4회로 확대해 운항에 들어간다. 도는 직항노선 재개를 계기로 제주를 찾는 대만 관광객 수가 늘어날 것으로 보고 있다. 지난해 제주를 찾은 대만 관광객 수는 3만8046명이었다. 이와 함께 5일부터 오는 6월14일까지 일주일에 2차례(수·토요일)씩 모두 21차례에 걸쳐 제주-필리핀(마닐라) 항공노선에 직항전세기가 취항에 들어갔다. 필리핀 내 6개 대형 여행사가 참여한 직항전세기 취항 기간 3천여명의 필리핀 관광객이 제주를 찾을 것으로 전망된다. 이와 함께 제주와 말레이시아(쿠알라룸푸르)를 잇는 직항노선 개설도 추진하고 있다. 도와 관광공사 등은 지난달 30일 말레이시아를 방문해 에어아시아 엑스(X) 경영진과 취항에 따른 협의를 벌였다. 도는 에어아시아 쪽에서 관광객이 원하는 제주 도착 시각에 맞춰 제주공항 슬롯을 확보해야 하고, 양 지역의 항공수요를 보완하는 전략이 필요하다는 의견을 제시함에 따라 보완대책이 마련되면 올해 안에 제주 취항이 이뤄질 가능성이 크다고 말했다. 이승찬 도 관광국장은 “동남아 지역을 대상으로 관광박람회와 매체 홍보 등 다양한 방법으로 제주의 관광자원과 무사증 입국 이점을 홍보해 관광시장 다변화를 추진하겠다”고 말했다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>동남아 단체관광객, 제주도 5일간 무비자 입국허용... 9월부터 - 화이트페이퍼 × 전체기사 종합 전체 국제 정치 교육 빅데이터 WP포토 경제 전체 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 전체 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 전체 문화∙일반 라이프 책도시락 전체 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 전체 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 올해의 책 베스트셀러랭킹 여론광장 전체 논쟁 더 칼럼 블로그 스토리 북콘서트 글쓰기훈련소 전체 글쓰기정보 연예 기타 전체 북토마토 CEO 직장인 여성/학부모 대학생 기업PR 라이프 전체 방송/연예 사회/일반 정치/경제 스포츠 UPDATED. 2022-10-11 12:27 (화) 로그인 회원가입 모바일웹 전체 종합 국제 정치 교육 빅데이터 WP포토 경제 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 문화∙일반 책도시락 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 여론광장 논쟁 더 칼럼 블로그 스토리 자유게시판 공지사항 기업PR 라이프 방송/연예 사회/일반 정치/경제 스포츠 검색버튼 기사검색 검색 이전 다음 동남아 단체관광객, 제주도 5일간 무비자 입국허용... 9월부터 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 산업 동남아 단체관광객, 제주도 5일간 무비자 입국허용... 9월부터 오예인 인턴기자 승인 2017.04.17 16:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ▲ 오는 9월부터 제주도로 환승 입국하는 동남아 단체 관광객이 무비자로 5일간 체류할 수 있게 된다. (사진=한국공항공사) [화이트페이퍼=오예인 인턴기자] 오는 9월부터 제주도에 방문하는 동남아 단체 관광객에게 5일간 무비자 입국이 허용된다. 17일 원희룡 제주도지사는 제주도청에서 열린 주간정책회의에서 중국에 한정돼 있던 환승 무비자 입국제도를 오는 9월부터 동남아 단체 관광객에게 적용한다고 밝혔다. 중국 정부의 방한금지령을 계기로 제주관광의 다변화를 위해 동남아 관광객을 잡겠다는 전략이다. 이에 따라 동남아 관광객들은 인천과 김해공항을 거쳐 제주를 최종 목적지로 할 경우 국내에서 무비자로 120시간까지 체류할 수 있게 된다 그러나 직항편이 부족한 문제에 대해 원지사는 비행시간 6시간 내에 있는 주요 국가·도시들을 중심으로 직항편을 점차적으로 늘려나가는 힘쓸 것을 주장했다. 당초 무비자 입국 허용 시기를 올 상반기 중으로 결정키로 했으나, 최근 유관기관 간 협의를 통해 9월로 조정됐다. 이날 회의를 통해 원지사는 중국 정부의 방한금지령 이후 관광업계 상황들을 점검하고 이같은 계획을 밝혔다. 저작권자 © 화이트페이퍼 무단전재 및 재배포 금지 화이트페이퍼, WHITEPAPER 오예인 인턴기자 y3in5@whitepaper.co.kr 다른기사 보기 관련기사 올 봄에도 소매유통업 경기 전망 '흐림' 국내 '모바일 결제' 시장은 벌써 한여름 K뷰티, 사드 타격 없다... 미국·일본 화장품수출↑ 개장 앞둔 인천공항 T2... 면세점 업계, 입찰 전쟁 예고 오지않는 '유커'...국내 면세점, 내국인 적극 공략 ‘종합 여행사’ 날개 다는 에어비앤비... 우리 여행업계 득실 저울질 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1온라인에서 오프라인으로…영토 넓히는 게임사들 2같은 음식 주문해도 배달비 달라... '최고 배달비' 많은 앱은 배민1 3SPC그룹, 무연고 아동 돕기 ‘SPC해피쉐어 캠페인’ 진행 4라인게임즈, 내달 '언디셈버' 글로벌 서비스 돌입…"운영 방식 차별 없어" 5농심켈로그 ‘켈로그 오트로드 by 연희’ 개최 6우리은행, 무주택 청년 위한 '우리 청년약속 통장' 출시 7신한은행, 청각장애인 일자리 지원 '카페스윗' 명동점 개점 8카카오뱅크, 디지털 정보 격차 해소 위한 IT기기 기부 참여 9내부통제 점검 나선 권준학 NH농협은행장 10태양광 대출·펀드 22.7조…금감원 "면밀 점검·조치 예정" 최신기사 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 영등포구 국제금융로 6길 33, 1212호 (여의도동, 맨하탄빌딩) 대표전화 : 02-323-1905 팩스 : 02-6007-1812 청소년보호책임자 : 박경화 법인명 : 주식회사 화이트페이퍼 제호 : 화이트페이퍼 등록번호 : 서울 아 03165 등록일 : 2014-05-22 발행일 : 2014-05-22 발행인 : 임정섭 편집인 : 임정섭 화이트페이퍼 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 화이트페이퍼. All rights reserved. mail to white@whitepaper.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제20회 제주도 관광기념품 공모전 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제20회 제주도 관광기념품 공모전 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제20회 제주도 관광기념품 공모전 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.04.12 17:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주 문화를 알리고 여행의 추억을 담은 제주 대표관광기념품을 발굴·육성하기 위해 오는 7월17일부터 28일까지 '제20회 제주특별자치도 관광기념품 공모전'을 개최한다고 밝혔다.올해는 제주의 전통문화를 계승하는 기념품과 실용성이 강조된 현대적 디자인의 기념품을 발굴하기 위해 공모 분야를 전통기념품과 현대기념품으로 구분했다. 공모 대상작은 민·공예품, 공산품, 가공품 등 관광객이 구매할 수 있는 모든 관광기념품으로, 응모자격은 제한이 없으며 제주특별자치도관광협회에 접수하면 된다.출품작은 심사를 거쳐 총 35점을 입상작으로 선정할 예정이다.입상자에게는 대상(상금 500만원), 금상(상금 300만원), 은상(상금 200만원) 등 상장과 상금이 수여되며, 상품개발자금 지원, 박람회 참가, 홍보물 제작, 온라인 홍보·판매, 지식재산권 등록 지원, 관광진흥기금 융자신청 자격 부여 등의 특전이 주어진다.이승찬 제주특별자치도 관광국장은“관광기념품 공모전을 통해 제주의 가치를 널리 알릴 수 있는 작품을 발굴·육성하고, 나아가 입상작이 판매로 이어지는 판로를 개척하도록 노력하겠다”고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 사드 여파 어려운 업체 컨설팅 지원 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도·관광협회, 사드 여파 어려운 업체 컨설팅 지원 등록 2017.04.05 14:39:39 작게 크게 【제주=뉴시스】장재혁 기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 4월부터 ‘관광관련 사업자 컨설팅 지원을 통한 경쟁력 제고 사업’을 무료로 진행한다고 5일 밝혔다. 컨설팅 지원사업은 최근 중국 당국의 사드(THAAD·고고도미사일방어체계) 배치 경제보복 조치로 사업체 경영에 어려움을 겪고 있는 도내 영세 사업체 등을 대상으로 전문컨설팅 업체가 사업체별 진단결과를 토대로 맞춤형 컨설팅을 지원하는 방식이다. 해당사업체의 상품 판매계획·브랜드 강화·매출증대 등 경영 관련 컨설팅은 물론 법인세·소득세 등 세무 관련 컨설팅, 계약 체결 및 작성법·지적 재산권 등 법률 관련 컨설팅 등이 무료 지원·시행된다. 참여신청은 5월14일까지 팩스(064-742-8865) 또는 이메일(bjs0183@naver.com)를 이용 관광협회로 신청 가능하다. jjhyej@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>환경부, 제주도 관광지…야생생물 II급 '황근' 식제 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 환경부, 제주도 관광지…야생생물 II급 '황근' 식제 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 환경부, 제주도 관광지…야생생물 II급 '황근' 식제 기자명 노충근 기자 입력 2017.04.14 00:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (세종=국제뉴스) 노충근 기자 = 환경부 국립생물자원관은 제주특별자치도(도지사 원희룡)와 손잡고 멸종위기 야생생물 II급인 '황근'을 대량으로 키워 올레길을 비롯한 제주도 관광지를 가꿀 계획이라고 밝혔다.황근은 우리나라의 무궁화속 식물 중에 유일한 자생종 낙엽 관목이며, 6~8월에 옅은 노란색의 꽃을 피워 일명 노랑무궁화로 불린다.제주도와 전라남도 일부 섬 지역의 해변에서 자라며, 해안도로 건설로 인해 자생지 파괴에 직면에 있다. 제주도 일부 지역에서 황근 복원사업을 진행한 바 있으나, 아직 1,500그루 미만에 불과해 체계적인 보전과 관리가 필요한 실정이다.국립생물자원관은 제주도 자생지에서 직접 채종한 종자를 이용해 2014년부터 3년 동안 증식한 4,000여 그루의 황근을 제주도에 기증할 예정이다.황근 기증을 위해 국립생물자원관과 제주도는 제주생물자원협의체 등 제주도 환경단체와 함께 4월 15일 제주도 송악산 도립공원에서 황근 대량증식과 지속적 관리를 위한 업무협약을 체결할 예정이다.기증된 황근은 송악산 도립공원에 2,000그루, 제주도 자연생태공원에 1,500그루, 한림읍 올레길 일대에 500그루가 심어질 예정이다.국립생물자원관과 제주도는 이번 식재를 시작으로 향후 5년 간 매년 4,000그루 이상의 황근을 보급할 계획이다. 제주생물자원협의체 등 제주도 환경단체는 제주도의 지원 아래 지속적으로 식재된 황근의 건강 상태를 관찰(모니터링)할 계획이다. 국립생물자원관과 제주도는 이번 증식 사업을 통해 제주도 생물종의 다양성을 보전하고 멸종위기 야생생물인 황근 개체 수도 늘어날 것으로 기대하고 있다.또한, 제주도 야생화의 아름다움을 대표하는 황근을 올레길을 비롯한 관광지역에 보급함으로써 관광의 즐거움을 더하고, 자생 무궁화의 가치를 국민에게 알리는 데에 의의가 있다.  백운석 국립생물자원관장은 "사려져가는 우리의 소중한 식물자원을 대량 증식하여 지속적으로 보전과 이용을 위한 노력에 더욱 박차를 가하겠다"고 말했다.원희룡 제주도지사는 "이번 황근 식재사업이 제주도 생물종 보전과 야생식물 자원화에 새로운 길을 열 것"이라며 "제주도 자연환경 보전에 더욱 노력하겠다"고 밝혔다. 노충근 기자 n-chg@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 부산도… 관광지마다 ‘신음’ - munhwa.com 모바일웹 | 지면보기 PDF | 2022.10.11 화요일 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ국제ㆍ인물ㆍ기획/시리즈 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ사설ㆍ시론ㆍ시평ㆍ포럼ㆍ뉴스와 시각ㆍ오후여담ㆍ문화논단ㆍ기고ㆍ살며 생각하며ㆍ여론마당 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ스포츠ㆍ국제ㆍ인물ㆍ삽화ㆍ그래픽/표 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ스포츠일반ㆍ야구ㆍ축구ㆍ농구ㆍ골프ㆍ배구 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ영화ㆍ가요ㆍ방송/연예 로그인ㆍ회원가입ㆍID/PW 찾기 전체리스트 로그인ㆍ회원가입ㆍID/PW 찾기 전체 이름순ㆍ정치부ㆍ경제부ㆍ산업부ㆍ사회부ㆍ전국부ㆍ국제부ㆍ문화부ㆍ체육부ㆍ사진부ㆍ디지털콘텐츠부 로그인ㆍ회원가입ㆍID/PW 찾기 별별 구독경제ㆍ세상의 모든 디저트ㆍ마음상담소ㆍ이 남자의 클래식ㆍ도시풍경ㆍ결혼했습니다ㆍ그립습니다 로그인ㆍ회원가입ㆍID/PW 찾기 전광판 Hot Click 경제일반 [경제] 게재 일자 : 2017년 04월 04일(火) 제주도 부산도… 관광지마다 ‘신음’ &amp;nbsp 제주, 관광기금 특별융자 지원 외국인전용 카지노 구조조정도 부산 기항 취소 中크루즈 증가 제주특별자치도는 지난 3일부터 일반여행업, 관광호텔, 콘도, 유람선, 카지노 등 27개 업종을 대상으로 300억 원 규모의 제주관광진흥기금 특별융자 지원에 들어갔다. 중국의 고고도미사일방어체계(THAAD·사드) 보복 조치로 유커(중국인 관광객)가 급감하면서 관련 업체들이 경영상의 심각한 어려움에 봉착했기 때문이다. 제주 카지노 운영 업체인 마제스타는 매출이 전년 대비 90% 이상 줄어들자 희망퇴직 절차를 밟고 있다. 전국 16개 외국인 전용 카지노 중 8개는 제주에 있는데 유커의 매출 비중이 90%에 달한다. 제주, 부산, 남이섬 등 지역 관광명소들이 눈덩이처럼 커지는 사드 피해로 신음하고 있다. 동남아와 일본, 중동 등과 내국인 관광객 유치를 통해 보완에 나섰지만, 방한 규모, 구매 객단가에서 격차가 커 매출 감소에 따른 지역경제 피해가 불가피할 것으로 전망된다. 4일 관련 업계에 따르면, 올해 들어 지난달 30일까지 제주를 방문한 유커는 44만807명으로 지난해보다 16.5% 감소했다. 제주의 중국계 여행업체, 중국인 단체 음식점, 전세버스 업체 등과 기타 특급·관광호텔 등이 유커 영향권에 포함돼 타격을 받고 있다. 부산도 지난달 15일 이후 부산기항을 취소한 중국발 크루즈선이 55척으로 늘었다. 한류 관광 1번지인 남이섬의 올해 1∼2월 유커 관광객은 3만5700명으로 지난해보다 28.9% 감소했다. 지난달 인천 엔타스 면세점을 찾은 유커 방문객은 350명으로 예년의 10분의 1 수준으로 줄었다. 라마다 인천 호텔은 지난 1∼3월에 월평균 17%가량 예약이 취소됐다. 이민종·최재규 기자 horizon@munhwa.com 이민종 기자 / 산업부 / 부장 이민종 기자의 다른 기사보기 [ 많이 본 기사 ] ▶ ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타.. ▶ 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업.. ▶ [영상] 우크라 공포에 떨게 한 ‘러 미사일’ 실물 포착 ▶ 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 ▶ 밀대로 학생 엉덩이 때린 20대 교사 징역형 [HOT! 포토] ‘한복 알리미’ 김연아의 아름다운 한복 자태 [HOT! 포토] 비·골프선수 ‘불륜 루머’에 김태희 반응은… [HOT! 포토] 골프 선수 박결, 유명인 상대로 퍼진 루머에 “.. [HOT! 포토] 코요태, “24년 만의 쇼케이스, 인기 연예인이 .. [HOT! 포토] 르세라핌, 17일 새 앨범 발매 → Mnet서 컴백.. [HOT! 포토] 레드벨벳 슬기, 오늘 첫 솔로 ‘28 Reasons’ 공.. [HOT! 포토] 고우리, 5세 연상 사업가와 결혼…“난 복 많은.. Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지 [ 구독신청:02-3701-5555 / 모바일 웹 : m.munhwa.com ] Please activate JavaScript for write a comment in LiveRe. ‘전략 핵탄두’ 미국 3508개 vs 러 2.. 택시 떠나는 이유 있네...“택시 연매출.. [영상] 우크라 공포에 떨게 한 ‘러 미.. 신화 신혜성, 도난차량서 음주측정 거.. [속보] 尹, 전술핵 재배치 “입장표.. ‘풀소유’ 논란에 활동 중단한 혜민스님.. 정진석 “욱일기 단 일본군이 진주한다.. ‘친문 검사’ 징계 주도할 대검 감찰부.. 의식 잃은 종업원 마구 때려 죽인 사.. 미 서부 명문 스탠퍼드대학서 대낮 성.. [속보] 尹, 전술핵 재배치 “입장표.. 정진석 “욱일기 단 일본군이 진주한다.. 나경원 "국힘 지지층 7주 연속 1등은.. “외국계 증권사, 네이버 매도의견 낸.. ‘정치감사’ 반발 전현희에 조정훈 “.. "일본 자위대를 군대로 인정?" 이재명.. [단독]새만금 풍력 7200배 수익올린.. 北 전투기 150대 무력시위...한미일 훈.. ‘학업성취도 평가’ 5년만에 부활한다 윤석열 “핵위협 앞에 어떤 우려가 정.. 택시 떠나는 이유 있네...“택시 연매.. 카카오뱅크·페이 주가 올해 70% 하락 삼성전자 입주 ‘키이우 건물’ 러 미사.. 경제위기는 오고 있는 것이 아니라 이.. ‘세계최대’ 삼바 4공장 이르면 내일.. 금리 오르는데…전세대출 변동금리 .. 환율 급등 원인은 복합적…경제심리.. 새출발기금 채무조정 신청 1조원 몰려.. 해외 직구족 원·달러 환율 급등에 구매.. 부동산 침체에도 우뚝 선 ‘强小주택’ 신혜성, 도난차량으로 음주운전 인.. 선우은숙, 4세 연하 아나운서 유영재.. 선우은숙, 유영재 아나운서와 혼인신.. 블랙핑크 유튜브 96%는 해외서 시청.. 이젠 싸늘히 식어버린 부부… 죽음.. "부산국제영화제 햇병아리" 아이유입.. 엄지원 "‘작은 아씨들’ 한 부분 될 수.. 남궁민·진아름 결혼식 현장 공개…눈.. ‘작은 아씨들’, 해피엔딩으로 종영…동.. "재미있다" 입소문...'인생은 아름다.. [단독]새만금 풍력 7200배 수익올.. 신혜성, 도난차량으로 음주운전 인정.. 경찰, 지난 주말 이준석 소환조사… .. 미 서부 명문 스탠퍼드대학서 대낮 성.. 박수홍 부친이 불붙인 ‘친족상도례’ 논.. ● 딸과의 대화 ● 비굴한 변명 ● 부부의 변심 ● 모범시민 ● 8을 반으로 나누면 ● 오늘의 운세 ● 라운드 후 건배사 ● 다채로운 상 2 ● 다채로운 상 ● 골퍼의 기도 회사소개 | 광고안내 | 사업안내 | 이용안내 | 구독안내 | 독자참여 | 회원서비스 | 고충처리 | 개인정보취급방침 | 청소년보호정책(책임자:한형민) | Site Map 제호 : 문화일보 | 주소 : 서울시 중구 새문안로 22 | 등록번호 : 서울특별시 아01697 | 등록일자 : 2011.7.15 | 회장 : 이병규 | 발행·편집인 : 김병직 | 발행연월일 : 1991.11.1Copyright ⓒ 문화일보. All Rights Reserved. ☎ 02) 3701-5114</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 등반동호회, 지역축제 활성화 위한 현장체험 편집팀 iheadline@hanmail.net 승인 2017.04.15 15:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 고철원, 곡천화원 대표)는 15일 도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 120여명과 함께 가파도 청보리 축제를 체험하는 등반동호회 행사를 가졌다.이번 행사는 18만여평 보리잎의 푸른 생명이 절정을 이루는 가파도 청보리축제 참가를 통해 제주 지역축제활성화, 제주관광상품 개발 및 도내 관광업종 간 상호 네트워크를 구축하는 자리로 마련됐다.제주특별자치도관광협회 등반동호회는 도내 관광자원 현장체험을 통해 제주의 다양한 관광상품을 개발‧촉진하고 관광으로 만들어가는 희망찬 제주를 만들기 위해 적극 앞장서 나갈 계획이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 제주도의회, ‘오라관광단지 개발’ 동의할까? 초미관심 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.04.03 16:12 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 4~14일 제350회 임시회…오라단지 환경영향평가 동의안 등 74건 처리 예정제주 최대 규모의 개발사업인 오라관광단지 개발사업이 순항할지, 4일부터 열리는 제주도의회 제350회 임시회에 도민사회의 이목이 집중되고 있다.또 임기 1년 밖에 남지 않은 원희룡 지사 및 이석문 교육감을 상대로 한 도정·교육행정질문이 진행될 예정이어서 여·야의 치열한 공방이 예상된다.제주도의회는 4일 오후 2시 제1차 본회의를 시작으로 오는 14일까지 11일 회기로 제350회 임시회를 개최한다. 이번 회기에는 조례안 10건, 동의안 63건(민간위탁 44건), 기금안 1건 등 74건의 의안이 제출되어 있다.특히 이번 회기에는 난개발 및 특혜 논란의 중심에 서 있는 오라관광단지 조성사업 환경영향평가 동의안이 처리될 예정이어서 관심이 모아진다.앞서 제주경실련은 지난달 30일 기자회견을 열고 동의안 부결을 촉구하는 등 환경·시민단체의 반발이 거세다.이와 함께 4.3사건 발발 70주년을 앞두고 4.3특별위원회가 제출한 ‘배·보상 및 신고상설화 조속 마련 촉구결의안’과 환경도시위원회가 제출한 ‘제주기점 항공운임 인상철회 촉구 결의안’이 처리될 예정이다.이 밖에도 공유재산관리계획변경안, 요석산업 토석채취 확장사업 환경영향평가서 협의내용 동의안, ‘감귤 생산·유통 조례 개정안’과 서귀포 부영아파트 횡포를 고발한다는 내용의 진정의 건 등이 처리된다.10일부터 13일까지 나흘에 걸쳐서는 임기 말년에 접어든 원희룡 도지사와 이석문 교육감을 상대로 도정 및 교육행정질문이 진행될 예정이어서 내년 지방선거를 앞두고 지방권력 교체를 놓고 창과 방패의 싸움이 치열하게 전개될 것으로 보인다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 베스트 관광인 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 이달의 베스트 관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 이달의 베스트 관광인 선정 이승현 기자 승인 2017.04.16 11:43 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=이승현 기자] 제주특별자치도관광협회(회장 김영진)는 지난 13일 제주웰컴센터에서 ‘칭찬합시다’ 이달의 베스트 관광인으로 임정환 ok승마장 부장을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다.이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 2022.10.11 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 전체 카테고리 정책 보건ㆍ복지 여성 인권 노동 환경 교육 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 건강 가정의학 내과 비뇨기과 산부인과 소아과 신경과 신경외과 안과 외과 이비인후과 정신과 정형외과 치과 피부과 암 산업 제약 바이오 의료기 화장품 식품 생활용품 금융 기업탐방 유통 레저ㆍ스포츠 기타 사건ㆍ사고 메디컬 일반 지구촌 지구촌 의료법&amp;톡 메디포토 보건ㆍ복지 의료계 동향 기업 Focus 오늘의 인물 환경 웰빙 웰빙 뷰티 육아ㆍ교육 DRUG FOOD 실버 DIET 性 여성 흡연ㆍ음주 기타 기자수첩 종합 칼럼 포토 인사 Fun&amp;Life(IR) 행사 광고 방송 e-뉴스 정치 경제 사회 생활문화 연예 스포츠 IT과학 세계 검색 HOME &gt; 의료 &gt; 의료산업 진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 박종헌 / 기사승인 : 2017-04-06 18:12:47 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사 한국보건산업진흥원(이하 진흥원)은 제주특별자치도, 제주관광공사와 함께 중화권 의료관광객 유치 활성화를 위해 해외 파워블로거를 초청, 제주에서 오는 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사를 개최한다고 6일 밝혔다. 이번 행사는 중국정부의 중국 관광객 방한 제재 조치에 대응해 시장 다변화·의료관광 등 고부가가치 관광을 활성화하기 위한 진흥원과 제주도, 제주관광공사의 적극적인 협력으로 성사됐다. 이번 체험 행사를 통해 제주도가 사드 여파에 효과적으로 대응할 수 있도록 하는 동시에 한국의료관광의 매력을 세계에 알릴 수 있는 홍보 컨텐츠를 창출, 다양한 온라인 채널을 통해 홍보할 계획이다. 이번 행사에 참여하는 해외 파워블로거는 홍콩, 대만, 중국, 말레이시아, 싱가포르 등에서 영화, 드라마, CF 활동을 하며 페이스북, 인스타그램, 웨이보 등에서 200만명 이상의 팔로어를 보유하고 있는 말레이시아 국적의 캐서린 리이다. 진흥원 관계자는 “이번 체험 행사가 한국의 매력적인 의료관광을 중화권 지역에 확산시키고, 의료관광객 유치 시장 다변화에 기여하여 사드 파고를 넘을 수 있는 좋은 계기가 될 것”이라고 밝혔다. 메디컬투데이 박종헌 (pyngmin@mdtoday.co.kr) [저작권자ⓒ 메디컬투데이. 무단전재-재배포 금지] 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 https://www.mdtoday.co.kr/news/view/179587462630853 URL복사 URL주소가 복사 되었습니다. 관련기사 케이메디허브, 2026년까지 ‘바이오 데이터 품질선도센터’ 운영KAIST, 염증성 장질환 진단 및 회복의 핵심효소 발견24시간 내 조류독감 감염 여부 확인하는 길 열렸다'항암효과' 세큐리네가 천연물의 총괄적 합성 원천기술 개발트라이업, K-HOSPITAL 참가…올인원 의료솔루션 브랜드 ‘모션’ 론칭 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 파마리서치, ‘리쥬더마 아토크림 엠디’ 대용량 출시케이엠제약, 바이오고‧대정파마와 헬스케어 제품 개발 MOU 체결셀트리온헬스케어 “램시마SC 전환 환자 85% 행복해졌다”카나리아바이오, 난소암 글로벌 임상3상 환자모집 400명 돌파휴젤 “보툴렉스, 미간주름 환자 부정적 심리 상태도 호전”신테카바이오, 엠디바이오랩과 AI 활용 신약후보물질 작용기전 공동연구 계약 주요기사 ‘착한 단백질’ 비건 식품…나트륨은 비슷제약 많고 자영업자만 처벌받는 '방역 위반 신고' 형평·실효성 논란인플루언서가 말한 다이어트템…‘부당광고’ 여전수입 캔디서 발기부전치료제 유사물질 검출…판매중단 및 회수나노입자의 광열특성 측정 '2in1' 현미경 개발원전 비정규직, 정규직比 산재 피해 9배·피폭량 7배 달해 HEADLINE 당뇨병 환자, 합병증으로 사망 정상인에 55%↑ 맥도날드, 식품위생법 위반 적발률 21.5%로 최다 샤페론, 부진한 수요예측에 쪼그라든 공모액…연구개발비 영향 불가피 많이 본 기사 1“노인 갑상선 질환, 인구 특성 반영한 포괄적 관리 필요”2여성이 남성보다 알츠하이머 발병 위험 높은 이유는?3해외리콜 제품 국내서 버젓이 유통…음·식료품 5년 새 17.5배 ↑4토니모리, ‘막대 그래프’ 표기 관련 LG생건과의 2심 승소5‘마약검사 의무화 제도’ 허점…“현장 혼란만 가중” PHOTO NEWS 랩지노믹스, 큐리옥스와 진단실험실 자동화 시스템 구축 MOU 체결 한국릴리, RET 표적 치료제 '레테브모' 국내 출시 기념 심포지엄 개최 캐논 메디칼, 팬토믹스와 헬스케어 산업 발전 위한 업무협약 개인정보취급방침 이용약관 청소년보호정책 윤리강령 기사제보 제휴문의 클린신고 서울시 동작구 사당동 86-6 서송타워 7층 | 대표전화 : 02-561-4494 | 팩스 : 02-554-9597 제호 : 메디컬투데이 | 등록번호 : 서울 아00177 | 등록일 : 2006-02-23 | 발행인 : 김상원 | 편집인 : 신현정 | 청소년보호책임자 : 김교식 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신현정 | 02-561-4494 | mdtoday@mdtoday.co.kr 본 콘텐츠의 저작권은 메디컬투데이 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 메디컬투데이 All rights reserved. 제보메일 : mdtoday@mdtoday.co.kr</t>
+  </si>
+  <si>
+    <t>국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 국내 대표적인 여행 코스 `제주도 관광지` 봄 관광객 맞이 나서 인터넷 마케팅팀 입력: 2017-04-06 15:44 우리나라에서 가장 먼저 봄을 맞는 제주는 봄꽃을 만끽할 수 있는 최적의 장소다. 특히 벚꽃 중에서도 잎이 가장 큰 제주 왕벚꽃을 감상할 수 있어, 내국인 관광객들의 관심을 한 몸에 받고 있다. 올해 4월과 5월에는 단거리 여행을 즐길 수 있는 황금연휴가 있어 국내 여행객이 급증할 것으로 예상된다. 제주도 관광지인 생물권보전지역, 세계자연유산, 세계지질공원 등 유네스코 3관왕을 달성한 이 곳은 볼거리와 구경거리가 가득한 천혜의 자연경관으로 명성이 높다. 가장 먼저 천연보호구역인 서귀포 해양 도립공원와 다양한 식물군이 분포하는 한라산은 제주도 관광지의 필수 코스이다. 올레길은 시흥-광치기 코스부터 시계 방향으로 총 21코스까지 해안을 따라 조성되어 있으며, 제주 남쪽에 있는 10코스는 용머리 해안과 송악산, 화순 금모래 해변 모슬포 항 등이 있다. 3월과 4월에는 한림공원 튤립축제, 서귀포 유채꽃축제 등이 개최될 전망이다. 이처럼 제주도는 합리적으로 국내 여행을 즐길 수 있도록 다양한 서비스와 사업을 구축하고 있다. 그 가운데 숙소 및 렌트카 사업이 대표적인데, 렌터카 사업은 국내 전체 렌트카 시장 장 가장 치열한 경쟁을 벌이고 있는 시장이다. 제주도 렌터카 업체는 2014년 82개 업체, 2015년 93개 업체, 2016년 110개 업체로 해가 지날수록 점점 증가하는 추세다. 이러한 과열 경쟁 속에 설립된 제주도렌트카협동조합 JRCOOP은 소규모 제주도렌트카들이 모여 설립됐다. 제주도렌트카협동조합 JRCOOP는 총 3,500여 대 차량을 보유해 소비자에게 다양한 선택의 기회를 제공하며 자체 정비소를 통한 확실한 정비로 사고 위험성 감소는 물론 사업 공동화 운영을 꾀하고 있다. 관계자는 "고객들에게 보다 저렴한 판매와 양질의 서비스 제공을 제공한다" 면서 "렌트카 가격 안정화 및 경쟁력 향상을 위해 노력할 것"이라고 전했다. 한편, 이 곳은 제주도렌트카 이용 고객들을 대상으로 인터넷 신문고 서비스를 개시하며 고객들의 불편사항을 적극적으로 개선하고 있다. 더 자세한 사항은 홈페이지를 통해 확인할 수 있다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1신혜성, 도난차량으로 음주운전 인정...“죄송하다” 2미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 3“외국계 증권사, 네이버 매도의견 낸 후 대량 공매도...피해는 개미투자자에게” 4노벨경제학상에 ‘금융위기 연구’ 버냉키 등 美경제학자 3인 5밀대로 학생 엉덩이 때린 20대 교사 징역형 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>제주도, 제20회 관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 제20회 관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 제20회 관광기념품 공모전 개최 김동일 기자 승인 2017.04.12 15:41 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 7월 17일부터 접수 진행 [제주일보=김동일 기자] 제주특별자치도는 대표적인 관광기념품을 발굴 및 육성하기 위해 제20회 제주도 관광기념품 공모전을 연다고 12일 밝혔다.특히 올해 공모전은 제주의 전통문화를 계승하는 기념품과 실용성을 갖춘 현대적 기념품을 발굴하기 위해 공모분야는 전통기념품과 현대기념품으로 각각 구분돼 치러진다.공모대상작은 민·공예품과 공산품, 가공품 등 관광객이 구매할 수 있는 모든 관광기념품으로, 응모자격은 제한이 없다.출품은 오는 7월 17일부터 같은 달 28일까지 제주도관광협회에 신청서를 제출하면 된다. 제주도는 심사를 거쳐 총 35점을 입상작으로 선정할 계획이다.입상자에게는 상장과 상금이 수여되고 상품개발자금 지원, 박람회 참가, 홍보물 제작, 관광진흥기금 융자신청 자격 부여 등의 특전이 주어진다.이승찬 제주도 관광국장은 “관광기념품 공모전을 통해 제주의 가치를 널리 알릴 수 있는 작품을 발굴·육성할 것”이라며 “입상작이 판매로 이어질 수 있도록 판로 개척에도 노력할 것”이라고 밝혔다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 2022.10.11 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 전체 카테고리 정책 보건ㆍ복지 여성 인권 노동 환경 교육 의료 의료산업 병원ㆍ약국 학술 단체 병원뉴스 닥터뉴스 건강 가정의학 내과 비뇨기과 산부인과 소아과 신경과 신경외과 안과 외과 이비인후과 정신과 정형외과 치과 피부과 암 산업 제약 바이오 의료기 화장품 식품 생활용품 금융 기업탐방 유통 레저ㆍ스포츠 기타 사건ㆍ사고 메디컬 일반 지구촌 지구촌 의료법&amp;톡 메디포토 보건ㆍ복지 의료계 동향 기업 Focus 오늘의 인물 환경 웰빙 웰빙 뷰티 육아ㆍ교육 DRUG FOOD 실버 DIET 性 여성 흡연ㆍ음주 기타 기자수첩 종합 칼럼 포토 인사 Fun&amp;Life(IR) 행사 광고 방송 e-뉴스 정치 경제 사회 생활문화 연예 스포츠 IT과학 세계 검색 HOME &gt; 의료 &gt; 의료산업 진흥원, 중화권 의료관광 유치 활성화 위해 제주도와 ‘맞손’ 박종헌 / 기사승인 : 2017-04-06 18:12:47 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사 한국보건산업진흥원(이하 진흥원)은 제주특별자치도, 제주관광공사와 함께 중화권 의료관광객 유치 활성화를 위해 해외 파워블로거를 초청, 제주에서 오는 7일부터 사흘간 한국 의료·제주 의료관광 체험 행사를 개최한다고 6일 밝혔다. 이번 행사는 중국정부의 중국 관광객 방한 제재 조치에 대응해 시장 다변화·의료관광 등 고부가가치 관광을 활성화하기 위한 진흥원과 제주도, 제주관광공사의 적극적인 협력으로 성사됐다. 이번 체험 행사를 통해 제주도가 사드 여파에 효과적으로 대응할 수 있도록 하는 동시에 한국의료관광의 매력을 세계에 알릴 수 있는 홍보 컨텐츠를 창출, 다양한 온라인 채널을 통해 홍보할 계획이다. 이번 행사에 참여하는 해외 파워블로거는 홍콩, 대만, 중국, 말레이시아, 싱가포르 등에서 영화, 드라마, CF 활동을 하며 페이스북, 인스타그램, 웨이보 등에서 200만명 이상의 팔로어를 보유하고 있는 말레이시아 국적의 캐서린 리이다. 진흥원 관계자는 “이번 체험 행사가 한국의 매력적인 의료관광을 중화권 지역에 확산시키고, 의료관광객 유치 시장 다변화에 기여하여 사드 파고를 넘을 수 있는 좋은 계기가 될 것”이라고 밝혔다. 메디컬투데이 박종헌 (pyngmin@mdtoday.co.kr) [저작권자ⓒ 메디컬투데이. 무단전재-재배포 금지] 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 https://www.mdtoday.co.kr/news/view/179587462630853 URL복사 URL주소가 복사 되었습니다. 관련기사 케이메디허브, 2026년까지 ‘바이오 데이터 품질선도센터’ 운영KAIST, 염증성 장질환 진단 및 회복의 핵심효소 발견24시간 내 조류독감 감염 여부 확인하는 길 열렸다'항암효과' 세큐리네가 천연물의 총괄적 합성 원천기술 개발트라이업, K-HOSPITAL 참가…올인원 의료솔루션 브랜드 ‘모션’ 론칭 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 뷰노, 가정용 심전도 측정 의료기기 ‘Hativ P30’ 식약처 인증 획득케이엠제약, 바이오고‧대정파마와 헬스케어 제품 개발 MOU 체결파마리서치, ‘리쥬더마 아토크림 엠디’ 대용량 출시셀트리온헬스케어 “램시마SC 전환 환자 85% 행복해졌다”카나리아바이오, 난소암 글로벌 임상3상 환자모집 400명 돌파휴젤 “보툴렉스, 미간주름 환자 부정적 심리 상태도 호전” 주요기사 ‘착한 단백질’ 비건 식품…나트륨은 비슷제약 많고 자영업자만 처벌받는 '방역 위반 신고' 형평·실효성 논란인플루언서가 말한 다이어트템…‘부당광고’ 여전수입 캔디서 발기부전치료제 유사물질 검출…판매중단 및 회수나노입자의 광열특성 측정 '2in1' 현미경 개발원전 비정규직, 정규직比 산재 피해 9배·피폭량 7배 달해 HEADLINE 당뇨병 환자, 합병증으로 사망 정상인에 55%↑ 맥도날드, 식품위생법 위반 적발률 21.5%로 최다 샤페론, 부진한 수요예측에 쪼그라든 공모액…연구개발비 영향 불가피 많이 본 기사 1“노인 갑상선 질환, 인구 특성 반영한 포괄적 관리 필요”2여성이 남성보다 알츠하이머 발병 위험 높은 이유는?3해외리콜 제품 국내서 버젓이 유통…음·식료품 5년 새 17.5배 ↑4토니모리, ‘막대 그래프’ 표기 관련 LG생건과의 2심 승소5‘마약검사 의무화 제도’ 허점…“현장 혼란만 가중” PHOTO NEWS 랩지노믹스, 큐리옥스와 진단실험실 자동화 시스템 구축 MOU 체결 한국릴리, RET 표적 치료제 '레테브모' 국내 출시 기념 심포지엄 개최 캐논 메디칼, 팬토믹스와 헬스케어 산업 발전 위한 업무협약 개인정보취급방침 이용약관 청소년보호정책 윤리강령 기사제보 제휴문의 클린신고 서울시 동작구 사당동 86-6 서송타워 7층 | 대표전화 : 02-561-4494 | 팩스 : 02-554-9597 제호 : 메디컬투데이 | 등록번호 : 서울 아00177 | 등록일 : 2006-02-23 | 발행인 : 김상원 | 편집인 : 신현정 | 청소년보호책임자 : 김교식 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신현정 | 02-561-4494 | mdtoday@mdtoday.co.kr 본 콘텐츠의 저작권은 메디컬투데이 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 메디컬투데이 All rights reserved. 제보메일 : mdtoday@mdtoday.co.kr</t>
   </si>
   <si>
     <t>제주도 00위원, 상인회 접촉해 오라관광단지 반대 부추겨 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 제주소식 제주도 00위원, 상인회 접촉해 오라관광단지 반대 부추겨 심미숙 seekmisook@betanews.net 기사 입력 : 2017-04-01 13:24:00 -000상가연합회 명의 기자회견문 미리 작성해 동의받아 제주특별자치도가 제주도의회에 제출한 제주오라관광단지 동의안 심의를 앞두고 道00위원회 모 위원과 일부 시민단체가 상인회를 만나 오라단지 반대기자회견을 부추기고 있어 파장이 커지고 있다. 상인회관계자에 따르면 시민단체 출신 道 00위원회 K위원은 경실련, 환경운동연합 등과 상인들이 구체적인 행동에 나설 줄 것을 요구하고 있는 것으로 알려졌다. 이들은 29일 전후로 동문시장 일대 시장상인회·신제주 시장 상인회에 미리 작성한 오라관광단지 개발 반대 성명서를 작성해 도민의 방에서 공동 기자회견 개최를 선동하는 등 행동방안을 협의 중인 것으로 드러났다. 이미 이들의 활발한 반대선동에 일부 상인회는 넘어간 것으로 확인되고 있다. 복수의 상인회 관계자에 따르면 다른 상인회들은 道00위원회 위원과 시민단체가 개입한 일방적 주장에 신중해야 한다는 입장인 것으로 전해지고 있다. 상인들이 자발적으로 검토한 내용이 아닌 한쪽의 일방적 주장의 기자회견문이 부적절한데다 오라관광단지 상생계획이 제출된 만큼 적절한 시기에 상권영향에 대한 협의를 진행하면 된다는 의견이다. 시민단체가 작성한 2017년3월31일자 0000상가연합회 명의 기자회견문은 “원희룡지사는 지역상인들의 생존권보다 중국자본의 사업권이 더 중요한가? 지역상인들의 생존권은 안중에도 없는 원지사의 불통행정을 강력히 규탄한다” 제목을 내걸었다. 기자회견문 초안도 정치적이라는 지적이 나오는 이유다. 제주도의회 동의안 심의를 앞두고 도의회를 압박하고 촉구하는 것이 아니라 원희룡 도지사를 타겟으로 하고 있어 성명서가 다분히 정치적 의도로 작성됐다는 입장이다. #제주도 감사위원회 감사조사 결과도 인정하지 않아더구나 기자회견문 내용에는 ‘제주시민사회단체연대회의’가 道 감사위원회에 오라관광단지 행정행위에 대한 특혜와 의혹 감사청구를 요청한 결과 위법행위가 없다는 발표도 나와있다. 감사위원회 감사조사 결과를 받아들이지 않고 도의회에 사업 인허가 과정과 위법적 부분을 조사해달라는 요구를 또 다시 반복하고 있어 도민사회의 우려가 커지는 상황이다. 동문시장에서 특산품을 취급하고 있는 K씨는 “감사위원회의 결과가 나왔는데도 인정하지 않고 오라관광단지 사업 인허가 과정 특혜와 위법적인 부분을 철저히 조사해달라는 요구는 법적 판결을 받아들이지 않는 것과 같다”고 혀를 찼다. 기자회견문은 “지역상인, 일반시민까지 참여하는 토론회를 개최하라”고도 요구하고 있다. 이는 시민단체들이 오라관광단지 정책토론회 개최를 요구하며 인허가 절차를 지연시켰던 성과를 이번에도 적용하기 위한 전술이란 평이 지배적이다. 본지 취재결과 제이씨씨(주) 관계자는 “행정절차상 도의회 환경영향평가 동의안이 통과될 경우 제주도 개발개획 승인이 나면 건축허가 전 ‘상권영향평가’를 위한 지역소상공인들과 공식 협의를 진행한다”고 밝혔다. #갈등해소 할 제주도00위원회 위원이 갈등 부추겨 도내 갈등을 중재할 道 00위원회 K위원(시민단체 간부)은 사전에  작성된 기자회견문에 동조할 상인들을 회유하고 있어 문제가 심각하다는 지적이다. 최근 몇 년간 제주도 각종위원회에 임명된 위원들이 관련규정을 어기고 위원회에서 취득한 정보를 이용해 활동을 하는 등 제주도의 행정적 관리를 벗어나고 있어 골머리를 앓고 있는 것으로 알려졌다. #제주도 00위원회 K위원, 제명 규정 지켜질까2015년~2016년에도 제주환경운동연합 이 모 위원의 경우 위원회에 제출된 자료를 반출해 사회단체와 함께 기자회견을 하는 등 김영란법을 위배했다는 논란에 휘말렸다. 도는 이 사건을 계기로 道 각 위원회 위원이 이중플레이를 하는 걸 막기 위해 관련규정까지 새로 만들었지만 유명무실하다는 평가를 받고 있다. 이번 00위원회 위원 K씨 경우는 더 심각하다. 갈등을 조정할 위원이 뒤로 갈등을 선동하고 다니는 등 관련규정을 심각히 위반해 제주특별자치도가 어떻게 처리할지 귀추가 주목되고 있다. 제주도는 현재 상인연합회를 포함해 제주시 17개 등 모두 22개의 상인회와 시장, 관련조합이 있다. 베타뉴스 심미숙 (seekmisook@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 제주소식 &gt;&gt; 카드뉴스 제주뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
   </si>
   <si>
-    <t>제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ &lt; 건설/부동산 &lt; 경제 &lt; 기사본문 - 경상일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-04 10:11 (화) 전체기사 독자투고 기사제보 알림 화촉 부고 모집 광고문의 구독신청 1989년 5월 15일 창간 기사검색 검색 전체메뉴 뉴스 최신뉴스/속보 정치 사회 문화 국제 전국뉴스 경제 종합 기업/무역 증권/금융 건설/부동산 유통/소비 금융가 경제가이드 사회 종합 울산 부산/양산 사건사고 시민기자의창 문화 종합 방송연예 도서/음반 공연/전시 스포츠 종합 축구 야구 골프 배구/농구 올림픽 월드컵 전국체전 오피니언 종합 사설 사내칼럼 사외칼럼 독자기고 울산사람들 경상일보TV PDF지면보기 로그인 회원가입 모바일웹 본문영역 이전 기사보기 다음 기사보기 제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 건설/부동산 제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ 기자명 경상일보 승인 2017.04.03 17:53 지면 21면 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도의 2.5배에 달하는 수치인 약 2600만 여 명이 찾는 부산 해운대의 인기는 나날이 높아지고있다. 제주도의 2.5배에 달하는 수치인 약 2600만 여 명이 찾는 부산 해운대의 인기는 나날이 높아지고있다. 레져, 쇼핑, 문화 등도 다채롭게 즐길 수 있으며, 관광특구로 지정 될 만큼 해운대의 관광지로서의 가치는 높다.해운대의 관광 수요는 점점 더 늘어날 예정이다. 지난 달 부산시가 발표한 ‘2017 부산관광진흥계획’은 외국인 관광객 310만 명 유치를 목표 정했으며, 특색 있는 관광 콘텐츠 육성 및 관광산업의 기반을 조성한다는 내용을 담고 있다.부산의 관광객과 수요는 더욱 늘어날 전망이지만 숙박시설은 턱없이 부족한 상황이다.특히, 성수기에는 이미 해운대 호텔 객실 점유율이 98%에 달했기에, 관광진흥계획이 진행된다면 숙박 부족 문제는 더욱 심각해질 것으로 보인다.부산시 관계자는 “부산은 세계적인 관광명소로 자리 잡아, 외국인 관광객 수만 보더라도 41%나 증가했지만 숙박시설은 늘 부족해 아쉬움을 남는다”며 “꾸준한 관광수요가 예상되는 만큼 방문객들이 여유롭게 즐길 수 있도록 숙박업체에 대한 공급이 절실하다”고 말했다.이러한 상황에 국제자산신탁이 시행하고 신해공영이 시공하는 ‘뷰티크테라스 해운대 호텔’이 3월25일 모델하우스를 개관하고 분양 중이라 눈길을 끌고 있다.이 호텔은 도보로 3분내에 해운대에 도달할 수 있어, 해운대 백사장을 앞마당처럼 누리는 프리미엄 조망권을 자랑한다. 또, 옥상에는 360도로 해운대를 조망 할 옥상정원 등의 테마 시설을 설치해 그린쉼터를 조성 할 예정이다. 인근에 아쿠아리움, 송림공원, 동백섬 등 다양한 여가 인프라도 갖춰 관광과 휴식 두 마리 토끼를 잡았다.일부 프리미엄 객실에만 제공하던 테라스도 특화설계 해 조망권을 더 높였다. 전 객실의 약 77%에 해당하는 139개 객실에 테라스를 제공, 객실에서 해운대 바다와 함께 동백섬, 광안대교 방면의 조망이 가능하다.또한 계약자와 투숙객들을 위한 혜택도 우수하다. 투숙객들에겐 이 호텔의 1호점인 ‘ 뷰티크테라스 해운대호텔’의 해운대 최초 옥상 수영장과 기타 부대시설 이용 가능한 권한이 주어지며, 이를 위한 셔틀버스도 운영할 예정이다. 계약자에게는 연 10일간 호텔을 자유롭게 이용할 수 있는 무료이용권을 제공할 것이다.호텔 최초 소극장을 지하 2층에 마련해 각종 문화 공연도 누릴 수 있다. 성인과 어린이를 위한 각종 영화와 공연을 제공 해 가족단위 방문객의 수요가 높을 것으로 전망된다. 비즈니스 그룹을 위한 단체 포럼 및 회의실도 갖췄다.한편 관광객뿐 아니라 투자자들에게도 ‘뷰티크 테라스 해운대 호텔’은 신뢰도가 높다. 해운대 최중심지에 들어서는 만큼 미래 가치를 따져봐도 높은 수익이 발생할 것으로 전망된다. 현재 직영관리의 운영으로 7년간 연 7%의 수익금이 발생, 고수익 투자처 중에서도 안정성을 보인다. 특히 호텔이 들어서는 해운대구는 지가 상승률이 3.3㎡당 17.75%(2016년 개별 공시지가)로, 전국 3위 및 부산에서는 가장 높은 구별 상승률을 기록했다.부산시 해운대구 우동 645-8,9에 들어서는 ‘뷰티크테라스 해운대 호텔’은 지하 5층~지상 24층 규모로 A타입부터 J타입까지 10가지 다양한 평면 타입이 총 181실로 구성된다.‘뷰티크테라스 해운대 호텔’의 견본주택은 부산시 해운대구 해운대로 570번길 45(우동)에 개관중이다.   디지털 뉴스부 경상일보 webmaster@ksilbo.co.kr 다른기사 보기 저작권자 © 경상일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 울산의대, 울산대병원 인근에 학사 건립한다 창평지구(북구)·율현지구(울주군)부터 해제 추진 진입로 막힌 상가들 “매출 반토막” 울산 남구 삼산동 예식장 ‘명도집행 결정’…예약자들 불안 호소 수족구병, 입과 손·발에 수포…대부분 일주일새 회복 가을밤 울산대공원서 힐링하세요 200대의 드론, 밤하늘 빛의 장관 연출 울산의대, 울산대병원 인근에 학사 건립한다 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 “러, 핵무기 시위 임박…핵장비 수송·북극해 핵실험 준비” 산유국 대규모 감산 논의에 국제유가 급등…WTI 5.2%↑ 국제금값도 1.8% 상승 美태평양함대, ‘일본해’ 아닌 동해·‘한반도 동쪽수역’으로 명기 재산분할 청구소송, 전업주부라도 긍정적 결과 기대할 수 있어 北미사일 5년 만에 일본열도 통과…홋카이도에 대피 지시 “이제 칸막이 없이 만나요” 4일부터 요양병원 접촉면회 허용 최신뉴스 “러, 핵무기 시위 임박…핵장비 수송·북극해 핵실험 준비” 산유국 대규모 감산 논의에 국제유가 급등…WTI 5.2%↑ 국제금값도 1.8% 상승 美태평양함대, ‘일본해’ 아닌 동해·‘한반도 동쪽수역’으로 명기 北미사일 5년 만에 일본열도 통과…홋카이도에 대피 지시 “이제 칸막이 없이 만나요” 4일부터 요양병원 접촉면회 허용 포토뉴스 전국체전 대비 대청소 흥겨운 울산 전국체전 홍보 울산전국체전 성공 기원 ‘꽃탑’ 원도심서 즐기는 문화재야행 인기뉴스 1 울산의대, 울산대병원 인근에 학사 건립한다 2 창평지구(북구)·율현지구(울주군)부터 해제 추진 3 진입로 막힌 상가들 “매출 반토막” 4 울산 남구 삼산동 예식장 ‘명도집행 결정’…예약자들 불안 호소 5 수족구병, 입과 손·발에 수포…대부분 일주일새 회복 6 가을밤 울산대공원서 힐링하세요 7 200대의 드론, 밤하늘 빛의 장관 연출 8 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 하단영역 매체정보 울산광역시 남구 북부순환도로 17 대표전화 : 052-220-0515 팩스 : 052-224-1030 사업자번호 610-81-07906 청소년보호책임자 : 배정환 제호 : 경상일보 등록번호 : 울산,아01105 등록일 : 2018-04-23 발행일 : 발행인 : (주)경상일보 엄주호 편집인 : 엄주호 Copyright © 2022 경상일보. All rights reserved. mail to webmaster@ksilbo.co.kr 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 전국뉴스 전체 보도자료 정치 교육 사회 기업 소상공인 건설/부동산 경제 TV/연예 문화 연예 스포츠 국제 김영삼전대통령서거 제19대 대통령 선거 울산사람들 전체 종합 울산사람들 톡톡인생 동정/인터뷰 인사 울산미소365 화제의인물 주간일정 될성부른나무 희망미소2009 화촉 부고 알림 모집 우리동네 사람들 연예/시사 전체 기획사보도자료 카드뉴스 전체 카드뉴스 디지털연합뉴스 오피니언 전체 사설 경상시론 경상칼럼 데스크칼럼 독자수필 특별기고 기자수첩 현장의시각 이런생각 스마트교실 무거통신 태화강 공병호칼럼 CEO칼럼 독자투고/제언 법률상담 태화루 독자위원회 교단일기 독자칼럼 경상시론 공업탑 발언대 독자기고 세무상담 오늘의시각 발행인칼럼 임진혁칼럼 이채필칼럼 이수동칼럼 정일근의 감성칼럼 전문가상담 신국조의 세상만사 배혜숙의 소소한 세상 이야기 법원칼럼 김주홍칼럼 정구열칼럼 이수동 미래칼럼 성범중교수의 한시산책 구천의 음악이야기 울산 새내기가 본 울산 디자인 배은경의 유물이야기 맹소영의 날씨이야기 양성봉의 냄새이야기 안병학의 디자인 이야기 경상읽기 장창호의 이야기 삼국유사 곽영신의 색채이야기 그림이 있는 에세이 노익희의 인문학이야기 이동우칼럼 박종화칼럼 이규옥의 디자인이야기 안전칼럼 이영순칼럼 정명숙칼럼 장선영의 수학이야기 문소운의 옹기이야기 환경의학칼럼 산업환경보건칼럼 김양호칼럼 강영환의 건축과 문화 기라영의 미술산책 우형순의 그림세상 안준호의 세상읽기 이태철칼럼 팩트n이슈-그건 이겁니다 윤범상의 世事雜談 이재명칼럼 김문찬의 건강지평 임희천의 수소이야기 이상목의 암각화 톺아보기 김남호의 철학산책 정준금 칼럼 행복한 안전칼럼 배혜숙의 한국100탑 장세련의 독서일기 임정아의 그림세상 윤주은의 우리글 우리말 자치의회 한규만의 사회와 문화 신선영의 컬러 톡!톡! 김상곤의 살며 생각하며 정두영의 마음건강 정홍가의 정원이야기 정연우칼럼 서태일의 말레이시아통신 성인수의 도시와 인간 장두석의 경제만화경 유동우 경제옹알이 최석영의 버섯이야기 송철호의 反求諸己 곽영신의 색채이야기 김경진의 암각화로 만나는 선사예술 윤석의 더불어나무 설성제의 독서공방 배성은의 세금이야기 한삼건의 미래도시 이명인의 기후와 환경 신면주칼럼 청년CEO포럼 정치 전체 종합 울산시의회 국회/정당 북한/통일 행정/외교 청와대 6.13지방선거 4·11제19대 국회의원선거 경상라운지 6.5보궐선거 6.2지방선거 울산4·27재선거 2012국민의선택 2014 전국동시지방선거 제20대 국회의원선거 제19대 대통령선거 문재인대통령한미정상회담 경제 전체 종합 증권/금융/세무 유통/소비 건설/부동산 기업/무역 농축수산업 부동산정보 세무상담 이런직종 소비자상담 창업가이드 쇼핑정보 시사경제알기 그래픽뉴스 경매물건 해외경제 증권뉴스 경제가이드 금융가 성공기업N기업인 일터의사람들 울산의 마을기업 눈에 띄는 중개물건 지역경제에 活力을 세무경영 최고위과정 문화 전체 종합 방송연예 생활과여성 건강N의료 도서음반 공연전시 오늘의운세 아줌마영어 한국탑순례 울산의철새 들꽃이야기 다시찾는근교산 살기좋은울산 뉴욕통신 시가있는금요일 연재만화 애완동물 문화엿보기 극장가산책 여행편지 의전이야기 울산포유 한국의축제 주역과다도 풍수이야기 미술산책 클래식이야기 아동놀이 막상막하 청진기 잉글리쉬울산포유 울산의인물산책 박물관즐기기 박물관과함께 가족과함께나들이 레포츠 삼국지인물 사람들이떠나버린풍경 청소년기자단 미인의동굴 건강이최고죠 홍여진의수다 역사속오늘 주목 읽고싶은신간 조행기 건강한젊음울산의미래 주말문화광장 여성들의작은모임 WeekNFree 태화강수담 경상일보신춘문예 한국인의밥상 디카사진공모전 옛사진울산이야기 스크린터치 TEAF 구술로정리하는울산이야기 곽미자의요가에세이 도시탐험AtoZ 예술로다가가는남성열전 한국의이색박물관 지상인문강좌 교과서속문화탐방 이사람을주목한다 울산언더그라운드를찾아서 HealthNCity 일본어한마디 영화로보는라틴아메리카 아침묵향 이야기로읽는세계명화 금쪽같은우리말 성범중의한시 투데이영어 연재소설-이예 그 불멸의 길 생활일어 樂인영화낚인영화 연재소설-海帝어둔 김경수의기초한자이야기 동호회탐방 동시를 읽는 아침 시를 읽는 아침 이재명의 계절 한담(閑談) 경상 갤러리 맛집투어-울산의 줄서는집 하지태왕기 김정수의 시조산책 사회 전체 종합 이재명의 뉴스 뒤집어보기 울산 부산/양산 울산양산 부산경남 대구/경북 시민기자의창 사건사고 노동 생활단신 뒷골목 이동편집국 녹색도시울산 사방팔방 별난이야기 에코이코노미선진국을가다 신종플루 간추린뉴스 뉴스브리핑 창간21주년특집 햇살 사방팔방 일본대지진 2017 울산 방문의 해 경상일보TV 전체 여기어때 이현주프로의리얼골프 영상뉴스 울산관광 배석우프로의 숏게임 국제 전체 종합 지구촌 별난이야기 아시아 아메리카 유럽 아프리카 해외토픽 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주 테마여행상품 공모 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 제주 테마여행상품 공모 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 제주 테마여행상품 공모 실시 이승현 기자 승인 2017.04.04 16:27 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 내·외국인 2개분야 진행…모객, 현지 세일즈 등 지원 [제주일보=이승현 기자] 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 관광업계 경쟁력 강화를 위해 오는 17일까지 도내에 본점을 둔 여행업체를 대상으로 제주 고부가가치 테마여행상품 공모를 실시한다.도관광협회는 외국인 및 내국인 2개 부문에 걸쳐 여행상품 공모를 진행하고 있으며 우수한 여행상품을 선정하기 위해 관광관련 전문가들로 평가위원회를 구성, 사업자의 수행능력, 상품의 경쟁력, 상품 운영계획 등을 감안해 평가할 계획이다.선정된 여행상품들은 판로 개척과 실질적인 관광객 모객 촉진에 필요한 광고비, 현지 세일즈 활동비, 모객 인센티브 등을 지원받게 된다.외국인 대상 테마여행상품의 경우 중화권, 일본, 동남아 등 해외 지역을 대상으로 레저스포츠(낚시, 마라톤, 싸이클 등), 문화전통(미식, 웨딩 등) 등 여행상품을 공모하고 있다.내국인 대상 테마여행상품의 경우 이벤트 활용 관광상품, 제주 유배길순례길 연계 전통문화, 레저스포츠, 공정관광·복지관광 등 공익성을 추구하는 관광상품, 기타 특정테마를 활용한 관광상품을 공모하고 있으며 총 3개 상품을 선정해 지원할 계획이다.자세한 사항은 도관광협회 홈페이지에서 확인 할 수 있다.도관광협회 관계자는 “올해는 내국인 뿐만 아니라 외국인 부문까지 테마여행상품을 확대해 관광객들이 제주도의 매력을 더욱 효과적으로 즐길 수 있도록 노력할 것“ 이라며 ”고부가가치 관광 상품을 통한 질적성장을 견인하고 공모에 선정된 상품을 상시적으로 점검해 관광객 유치에 집중할 계획”이라고 밝혔다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ &lt; 건설/부동산 &lt; 경제 &lt; 기사본문 - 경상일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-11 00:11 (화) 전체기사 독자투고 기사제보 알림 화촉 부고 모집 광고문의 구독신청 1989년 5월 15일 창간 기사검색 검색 전체메뉴 뉴스 최신뉴스/속보 정치 사회 문화 국제 전국뉴스 경제 종합 기업/무역 증권/금융 건설/부동산 유통/소비 금융가 경제가이드 사회 종합 울산 부산/양산 사건사고 시민기자의창 문화 종합 방송연예 도서/음반 공연/전시 스포츠 종합 축구 야구 골프 배구/농구 올림픽 월드컵 전국체전 오피니언 종합 사설 사내칼럼 사외칼럼 독자기고 울산사람들 경상일보TV PDF지면보기 로그인 회원가입 모바일웹 본문영역 이전 기사보기 다음 기사보기 제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 건설/부동산 제주도의 2.5배 관광도시 해운대, 프리미엄 조망권 분양형 호텔 ‘각광’ 기자명 경상일보 승인 2017.04.03 17:53 지면 21면 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도의 2.5배에 달하는 수치인 약 2600만 여 명이 찾는 부산 해운대의 인기는 나날이 높아지고있다. 제주도의 2.5배에 달하는 수치인 약 2600만 여 명이 찾는 부산 해운대의 인기는 나날이 높아지고있다. 레져, 쇼핑, 문화 등도 다채롭게 즐길 수 있으며, 관광특구로 지정 될 만큼 해운대의 관광지로서의 가치는 높다.해운대의 관광 수요는 점점 더 늘어날 예정이다. 지난 달 부산시가 발표한 ‘2017 부산관광진흥계획’은 외국인 관광객 310만 명 유치를 목표 정했으며, 특색 있는 관광 콘텐츠 육성 및 관광산업의 기반을 조성한다는 내용을 담고 있다.부산의 관광객과 수요는 더욱 늘어날 전망이지만 숙박시설은 턱없이 부족한 상황이다.특히, 성수기에는 이미 해운대 호텔 객실 점유율이 98%에 달했기에, 관광진흥계획이 진행된다면 숙박 부족 문제는 더욱 심각해질 것으로 보인다.부산시 관계자는 “부산은 세계적인 관광명소로 자리 잡아, 외국인 관광객 수만 보더라도 41%나 증가했지만 숙박시설은 늘 부족해 아쉬움을 남는다”며 “꾸준한 관광수요가 예상되는 만큼 방문객들이 여유롭게 즐길 수 있도록 숙박업체에 대한 공급이 절실하다”고 말했다.이러한 상황에 국제자산신탁이 시행하고 신해공영이 시공하는 ‘뷰티크테라스 해운대 호텔’이 3월25일 모델하우스를 개관하고 분양 중이라 눈길을 끌고 있다.이 호텔은 도보로 3분내에 해운대에 도달할 수 있어, 해운대 백사장을 앞마당처럼 누리는 프리미엄 조망권을 자랑한다. 또, 옥상에는 360도로 해운대를 조망 할 옥상정원 등의 테마 시설을 설치해 그린쉼터를 조성 할 예정이다. 인근에 아쿠아리움, 송림공원, 동백섬 등 다양한 여가 인프라도 갖춰 관광과 휴식 두 마리 토끼를 잡았다.일부 프리미엄 객실에만 제공하던 테라스도 특화설계 해 조망권을 더 높였다. 전 객실의 약 77%에 해당하는 139개 객실에 테라스를 제공, 객실에서 해운대 바다와 함께 동백섬, 광안대교 방면의 조망이 가능하다.또한 계약자와 투숙객들을 위한 혜택도 우수하다. 투숙객들에겐 이 호텔의 1호점인 ‘ 뷰티크테라스 해운대호텔’의 해운대 최초 옥상 수영장과 기타 부대시설 이용 가능한 권한이 주어지며, 이를 위한 셔틀버스도 운영할 예정이다. 계약자에게는 연 10일간 호텔을 자유롭게 이용할 수 있는 무료이용권을 제공할 것이다.호텔 최초 소극장을 지하 2층에 마련해 각종 문화 공연도 누릴 수 있다. 성인과 어린이를 위한 각종 영화와 공연을 제공 해 가족단위 방문객의 수요가 높을 것으로 전망된다. 비즈니스 그룹을 위한 단체 포럼 및 회의실도 갖췄다.한편 관광객뿐 아니라 투자자들에게도 ‘뷰티크 테라스 해운대 호텔’은 신뢰도가 높다. 해운대 최중심지에 들어서는 만큼 미래 가치를 따져봐도 높은 수익이 발생할 것으로 전망된다. 현재 직영관리의 운영으로 7년간 연 7%의 수익금이 발생, 고수익 투자처 중에서도 안정성을 보인다. 특히 호텔이 들어서는 해운대구는 지가 상승률이 3.3㎡당 17.75%(2016년 개별 공시지가)로, 전국 3위 및 부산에서는 가장 높은 구별 상승률을 기록했다.부산시 해운대구 우동 645-8,9에 들어서는 ‘뷰티크테라스 해운대 호텔’은 지하 5층~지상 24층 규모로 A타입부터 J타입까지 10가지 다양한 평면 타입이 총 181실로 구성된다.‘뷰티크테라스 해운대 호텔’의 견본주택은 부산시 해운대구 해운대로 570번길 45(우동)에 개관중이다.   디지털 뉴스부 경상일보 webmaster@ksilbo.co.kr 다른기사 보기 저작권자 © 경상일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 창평지구(북구)·율현지구(울주군)부터 해제 추진 진입로 막힌 상가들 “매출 반토막” “이예로 완전개통으로 울산 남구~경주 지척” 가을밤 울산대공원서 힐링하세요 엑소21컨벤션 강제집행 임박 행사60건 ‘비상’ 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 올 개천절에도 간월재 억새평원서 ‘음악바람’ 분다 창평지구(북구)·율현지구(울주군)부터 해제 추진 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 반환점 돈 전국체전…울산선수 7명 다관왕 전국체전 마라톤 경기로 11~12일 도로 일부 통제 尹대통령 “지방시대 핵심은 지역 스스로 성장동력 찾는 것” 씨름·카누·역도·태권도·레슬링·육상…하루에만 ‘금 18개·은 9개·동 13개’ 획득 역도 여자 3관왕 서정미, “2번의 실패 딛고, 나 자신을 믿고 도전” 카누 2관왕 조광희, “연습한 만큼 좋은 결과가 나와 기뻐” 최신뉴스 반환점 돈 전국체전…울산선수 7명 다관왕 전국체전 마라톤 경기로 11~12일 도로 일부 통제 尹대통령 “지방시대 핵심은 지역 스스로 성장동력 찾는 것” 씨름·카누·역도·태권도·레슬링·육상…하루에만 ‘금 18개·은 9개·동 13개’ 획득 역도 여자 3관왕 서정미, “2번의 실패 딛고, 나 자신을 믿고 도전” 포토뉴스 ‘FA컵 4강’ 선제골 넣은 울산현대 자연주의 정원, 막바지 작업 구슬땀 가을비 내리는 울산대공원 전국체전 대비 대청소 인기뉴스 1 창평지구(북구)·율현지구(울주군)부터 해제 추진 2 진입로 막힌 상가들 “매출 반토막” 3 “이예로 완전개통으로 울산 남구~경주 지척” 4 가을밤 울산대공원서 힐링하세요 5 엑소21컨벤션 강제집행 임박 행사60건 ‘비상’ 6 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 7 올 개천절에도 간월재 억새평원서 ‘음악바람’ 분다 8 유방암, 서구식 생활양식으로 20·30대 발병 증가 하단영역 매체정보 울산광역시 남구 북부순환도로 17 대표전화 : 052-220-0515 팩스 : 052-224-1030 사업자번호 610-81-07906 청소년보호책임자 : 배정환 제호 : 경상일보 등록번호 : 울산,아01105 등록일 : 2018-04-23 발행일 : 발행인 : (주)경상일보 엄주호 편집인 : 엄주호 Copyright © 2022 경상일보. All rights reserved. mail to webmaster@ksilbo.co.kr 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 전국뉴스 전체 보도자료 정치 교육 사회 기업 소상공인 건설/부동산 경제 TV/연예 문화 연예 스포츠 국제 김영삼전대통령서거 제19대 대통령 선거 울산사람들 전체 종합 울산사람들 톡톡인생 동정/인터뷰 인사 울산미소365 화제의인물 주간일정 될성부른나무 희망미소2009 화촉 부고 알림 모집 우리동네 사람들 연예/시사 전체 기획사보도자료 카드뉴스 전체 카드뉴스 디지털연합뉴스 오피니언 전체 사설 경상시론 경상칼럼 데스크칼럼 독자수필 특별기고 기자수첩 현장의시각 이런생각 스마트교실 무거통신 태화강 공병호칼럼 CEO칼럼 독자투고/제언 법률상담 태화루 독자위원회 교단일기 독자칼럼 경상시론 공업탑 발언대 독자기고 세무상담 오늘의시각 발행인칼럼 임진혁칼럼 이채필칼럼 이수동칼럼 정일근의 감성칼럼 전문가상담 신국조의 세상만사 배혜숙의 소소한 세상 이야기 법원칼럼 김주홍칼럼 정구열칼럼 이수동 미래칼럼 성범중교수의 한시산책 구천의 음악이야기 울산 새내기가 본 울산 디자인 배은경의 유물이야기 맹소영의 날씨이야기 양성봉의 냄새이야기 안병학의 디자인 이야기 경상읽기 장창호의 이야기 삼국유사 곽영신의 색채이야기 그림이 있는 에세이 노익희의 인문학이야기 이동우칼럼 박종화칼럼 이규옥의 디자인이야기 안전칼럼 이영순칼럼 정명숙칼럼 장선영의 수학이야기 문소운의 옹기이야기 환경의학칼럼 산업환경보건칼럼 김양호칼럼 강영환의 건축과 문화 기라영의 미술산책 우형순의 그림세상 안준호의 세상읽기 이태철칼럼 팩트n이슈-그건 이겁니다 윤범상의 世事雜談 이재명칼럼 김문찬의 건강지평 임희천의 수소이야기 이상목의 암각화 톺아보기 김남호의 철학산책 정준금 칼럼 행복한 안전칼럼 배혜숙의 한국100탑 장세련의 독서일기 임정아의 그림세상 윤주은의 우리글 우리말 자치의회 한규만의 사회와 문화 신선영의 컬러 톡!톡! 김상곤의 살며 생각하며 정두영의 마음건강 정홍가의 정원이야기 정연우칼럼 서태일의 말레이시아통신 성인수의 도시와 인간 장두석의 경제만화경 유동우 경제옹알이 최석영의 버섯이야기 송철호의 反求諸己 곽영신의 색채이야기 김경진의 암각화로 만나는 선사예술 윤석의 더불어나무 설성제의 독서공방 배성은의 세금이야기 한삼건의 미래도시 이명인의 기후와 환경 신면주칼럼 청년CEO포럼 정치 전체 종합 울산시의회 국회/정당 북한/통일 행정/외교 청와대 6.13지방선거 4·11제19대 국회의원선거 경상라운지 6.5보궐선거 6.2지방선거 울산4·27재선거 2012국민의선택 2014 전국동시지방선거 제20대 국회의원선거 제19대 대통령선거 문재인대통령한미정상회담 경제 전체 종합 증권/금융/세무 유통/소비 건설/부동산 기업/무역 농축수산업 부동산정보 세무상담 이런직종 소비자상담 창업가이드 쇼핑정보 시사경제알기 그래픽뉴스 경매물건 해외경제 증권뉴스 경제가이드 금융가 성공기업N기업인 일터의사람들 울산의 마을기업 눈에 띄는 중개물건 지역경제에 活力을 세무경영 최고위과정 문화 전체 종합 방송연예 생활과여성 건강N의료 도서음반 공연전시 오늘의운세 아줌마영어 한국탑순례 울산의철새 들꽃이야기 다시찾는근교산 살기좋은울산 뉴욕통신 시가있는금요일 연재만화 애완동물 문화엿보기 극장가산책 여행편지 의전이야기 울산포유 한국의축제 주역과다도 풍수이야기 미술산책 클래식이야기 아동놀이 막상막하 청진기 잉글리쉬울산포유 울산의인물산책 박물관즐기기 박물관과함께 가족과함께나들이 레포츠 삼국지인물 사람들이떠나버린풍경 청소년기자단 미인의동굴 건강이최고죠 홍여진의수다 역사속오늘 주목 읽고싶은신간 조행기 건강한젊음울산의미래 주말문화광장 여성들의작은모임 WeekNFree 태화강수담 경상일보신춘문예 한국인의밥상 디카사진공모전 옛사진울산이야기 스크린터치 TEAF 구술로정리하는울산이야기 곽미자의요가에세이 도시탐험AtoZ 예술로다가가는남성열전 한국의이색박물관 지상인문강좌 교과서속문화탐방 이사람을주목한다 울산언더그라운드를찾아서 HealthNCity 일본어한마디 영화로보는라틴아메리카 아침묵향 이야기로읽는세계명화 금쪽같은우리말 성범중의한시 투데이영어 연재소설-이예 그 불멸의 길 생활일어 樂인영화낚인영화 연재소설-海帝어둔 김경수의기초한자이야기 동호회탐방 동시를 읽는 아침 시를 읽는 아침 이재명의 계절 한담(閑談) 경상 갤러리 맛집투어-울산의 줄서는집 하지태왕기 김정수의 시조산책 사회 전체 종합 이재명의 뉴스 뒤집어보기 울산 부산/양산 울산양산 부산경남 대구/경북 시민기자의창 사건사고 노동 생활단신 뒷골목 이동편집국 녹색도시울산 사방팔방 별난이야기 에코이코노미선진국을가다 신종플루 간추린뉴스 뉴스브리핑 창간21주년특집 햇살 사방팔방 일본대지진 2017 울산 방문의 해 경상일보TV 전체 여기어때 이현주프로의리얼골프 영상뉴스 울산관광 배석우프로의 숏게임 국제 전체 종합 지구촌 별난이야기 아시아 아메리카 유럽 아프리카 해외토픽 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주 테마여행상품 공모 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 제주 테마여행상품 공모 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 제주 테마여행상품 공모 실시 이승현 기자 승인 2017.04.04 16:27 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 내·외국인 2개분야 진행…모객, 현지 세일즈 등 지원 [제주일보=이승현 기자] 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 관광업계 경쟁력 강화를 위해 오는 17일까지 도내에 본점을 둔 여행업체를 대상으로 제주 고부가가치 테마여행상품 공모를 실시한다.도관광협회는 외국인 및 내국인 2개 부문에 걸쳐 여행상품 공모를 진행하고 있으며 우수한 여행상품을 선정하기 위해 관광관련 전문가들로 평가위원회를 구성, 사업자의 수행능력, 상품의 경쟁력, 상품 운영계획 등을 감안해 평가할 계획이다.선정된 여행상품들은 판로 개척과 실질적인 관광객 모객 촉진에 필요한 광고비, 현지 세일즈 활동비, 모객 인센티브 등을 지원받게 된다.외국인 대상 테마여행상품의 경우 중화권, 일본, 동남아 등 해외 지역을 대상으로 레저스포츠(낚시, 마라톤, 싸이클 등), 문화전통(미식, 웨딩 등) 등 여행상품을 공모하고 있다.내국인 대상 테마여행상품의 경우 이벤트 활용 관광상품, 제주 유배길순례길 연계 전통문화, 레저스포츠, 공정관광·복지관광 등 공익성을 추구하는 관광상품, 기타 특정테마를 활용한 관광상품을 공모하고 있으며 총 3개 상품을 선정해 지원할 계획이다.자세한 사항은 도관광협회 홈페이지에서 확인 할 수 있다.도관광협회 관계자는 “올해는 내국인 뿐만 아니라 외국인 부문까지 테마여행상품을 확대해 관광객들이 제주도의 매력을 더욱 효과적으로 즐길 수 있도록 노력할 것“ 이라며 ”고부가가치 관광 상품을 통한 질적성장을 견인하고 공모에 선정된 상품을 상시적으로 점검해 관광객 유치에 집중할 계획”이라고 밝혔다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -524,9 +725,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -536,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +756,444 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
